--- a/tests/for_concat/for_func5_merge_and_format_excels/总表.xlsx
+++ b/tests/for_concat/for_func5_merge_and_format_excels/总表.xlsx
@@ -2,66 +2,392 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="18520" windowHeight="7670" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="24">
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
       <b val="1"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <family val="2"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font/>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -71,30 +397,269 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border/>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -103,8 +668,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -112,13 +683,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -471,7 +1086,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -481,49 +1095,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI39"/>
+  <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
-    <col width="11.25" customWidth="1" min="1" max="1"/>
+    <col width="11.2545454545455" customWidth="1" min="1" max="1"/>
     <col width="8.5" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="19.25" customWidth="1" min="5" max="5"/>
-    <col width="14.75" customWidth="1" min="6" max="6"/>
-    <col width="17.25" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="3" max="4"/>
+    <col width="19.2545454545455" customWidth="1" min="5" max="5"/>
+    <col width="14.7545454545455" customWidth="1" min="6" max="6"/>
+    <col width="17.2545454545455" customWidth="1" min="7" max="7"/>
     <col width="26" customWidth="1" min="8" max="8"/>
     <col width="15.5" customWidth="1" min="9" max="9"/>
-    <col width="4.83203125" customWidth="1" min="10" max="10"/>
-    <col width="10.33203125" customWidth="1" min="11" max="11"/>
-    <col width="19.83203125" customWidth="1" min="12" max="12"/>
-    <col width="8.5" customWidth="1" min="13" max="13"/>
-    <col width="12.33203125" customWidth="1" min="14" max="14"/>
-    <col width="30.08203125" customWidth="1" min="15" max="15"/>
-    <col width="4.83203125" customWidth="1" min="16" max="16"/>
-    <col width="9.08203125" customWidth="1" min="17" max="17"/>
-    <col width="13" customWidth="1" min="18" max="18"/>
-    <col width="8.5" customWidth="1" min="19" max="19"/>
-    <col width="12.33203125" customWidth="1" min="20" max="20"/>
-    <col width="22.08203125" customWidth="1" min="21" max="21"/>
-    <col width="18.25" customWidth="1" min="22" max="22"/>
-    <col width="12.33203125" customWidth="1" min="23" max="23"/>
-    <col width="8.5" customWidth="1" min="24" max="24"/>
-    <col width="30.08203125" customWidth="1" min="25" max="25"/>
-    <col width="22.08203125" customWidth="1" min="26" max="26"/>
-    <col width="14.33203125" customWidth="1" min="27" max="27"/>
-    <col width="71.08203125" customWidth="1" min="28" max="28"/>
-    <col width="13.33203125" customWidth="1" min="29" max="29"/>
-    <col width="27.75" customWidth="1" min="30" max="30"/>
-    <col width="25.83203125" customWidth="1" min="31" max="31"/>
-    <col width="8.5" customWidth="1" min="32" max="32"/>
-    <col width="12.33203125" customWidth="1" min="33" max="33"/>
-    <col width="13" customWidth="1" min="34" max="34"/>
-    <col width="27.75" customWidth="1" min="35" max="35"/>
+    <col width="4.83636363636364" customWidth="1" min="10" max="10"/>
+    <col width="10.3363636363636" customWidth="1" min="11" max="11"/>
+    <col width="8.5" customWidth="1" min="12" max="12"/>
+    <col width="12.3363636363636" customWidth="1" min="13" max="13"/>
+    <col width="30.0818181818182" customWidth="1" min="14" max="14"/>
+    <col width="4.83636363636364" customWidth="1" min="15" max="15"/>
+    <col width="9.08181818181818" customWidth="1" min="16" max="16"/>
+    <col width="13" customWidth="1" min="17" max="17"/>
+    <col width="8.5" customWidth="1" min="18" max="18"/>
+    <col width="12.3363636363636" customWidth="1" min="19" max="19"/>
+    <col width="22.0818181818182" customWidth="1" min="20" max="20"/>
+    <col width="18.2545454545455" customWidth="1" min="21" max="21"/>
+    <col width="12.3363636363636" customWidth="1" min="22" max="22"/>
+    <col width="8.5" customWidth="1" min="23" max="23"/>
+    <col width="30.0818181818182" customWidth="1" min="24" max="24"/>
+    <col width="22.0818181818182" customWidth="1" min="25" max="25"/>
+    <col width="14.3363636363636" customWidth="1" min="26" max="26"/>
+    <col width="71.08181818181821" customWidth="1" min="27" max="27"/>
+    <col width="13.3363636363636" customWidth="1" min="28" max="28"/>
+    <col width="27.7545454545455" customWidth="1" min="29" max="29"/>
+    <col width="25.8363636363636" customWidth="1" min="30" max="30"/>
+    <col width="8.5" customWidth="1" min="31" max="31"/>
+    <col width="12.3363636363636" customWidth="1" min="32" max="32"/>
+    <col width="13" customWidth="1" min="33" max="33"/>
+    <col width="27.7545454545455" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -582,4486 +1194,4713 @@
           <t>民族</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>身份证号</t>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>生源类别</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>生源类别</t>
+          <t>政治面貌</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>政治面貌</t>
+          <t>专业名称</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>专业名称</t>
+          <t>学制</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>学制</t>
+          <t>入学时间</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>入学时间</t>
+          <t>毕业时间</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>毕业时间</t>
+          <t>学籍状态</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>学籍状态</t>
+          <t>学籍变更日期</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>学籍变更日期</t>
+          <t>生源所在地州</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>生源所在地州</t>
+          <t>户口所在地州</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>户口所在地州</t>
+          <t>户口所在县市</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>户口所在县市</t>
+          <t>户口性质</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>户口性质</t>
+          <t>毕业中学名称</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>毕业中学名称</t>
+          <t>家庭所属地州</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>家庭所属地州</t>
+          <t>家庭所属县市</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>家庭所属县市</t>
+          <t>家庭通讯地址</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>家庭通讯地址</t>
+          <t>本人手机号</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>本人手机号</t>
+          <t>本人电子邮箱</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>本人电子邮箱</t>
+          <t>护照号码</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>护照号码</t>
+          <t>出境情况</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>出境情况</t>
+          <t>父亲联系电话</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>父亲联系电话</t>
+          <t>母亲联系电话</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>母亲联系电话</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
           <t>备注</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="inlineStr">
+    <row r="2" ht="56" customHeight="1">
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>本科/硕士/博士</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>非定向、定向、少数民族骨干计划</t>
         </is>
       </c>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>男/女</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>须为全称</t>
         </is>
       </c>
-      <c r="L2" s="5" t="n"/>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>新疆内高班/统招普通</t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>中共党员、中共预备党员、共青团员、群众</t>
         </is>
       </c>
-      <c r="O2" s="3" t="n"/>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>阿拉伯数字</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="P2" s="2" t="n">
         <v>20210901</v>
       </c>
-      <c r="R2" s="3" t="n">
+      <c r="Q2" s="2" t="n">
         <v>20250701</v>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="R2" s="2" t="inlineStr">
         <is>
           <t>在读/休学</t>
         </is>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="S2" s="2" t="n">
         <v>20220901</v>
       </c>
-      <c r="U2" s="3" t="inlineStr">
+      <c r="T2" s="2" t="inlineStr">
         <is>
           <t>新疆地州规范名称</t>
         </is>
       </c>
-      <c r="V2" s="3" t="inlineStr">
+      <c r="U2" s="2" t="inlineStr">
         <is>
           <t>新疆地州规范名称</t>
         </is>
       </c>
-      <c r="W2" s="3" t="n"/>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="V2" s="2" t="n"/>
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>农业/非农业</t>
         </is>
       </c>
-      <c r="Y2" s="3" t="n"/>
-      <c r="Z2" s="3" t="inlineStr">
+      <c r="X2" s="2" t="n"/>
+      <c r="Y2" s="2" t="inlineStr">
         <is>
           <t>新疆地州规范名称</t>
         </is>
       </c>
-      <c r="AA2" s="3" t="n"/>
-      <c r="AB2" s="3" t="n"/>
-      <c r="AC2" s="3" t="n"/>
-      <c r="AD2" s="3" t="n"/>
-      <c r="AE2" s="3" t="n"/>
-      <c r="AF2" s="3" t="n"/>
-      <c r="AG2" s="3" t="n"/>
-      <c r="AH2" s="3" t="n"/>
-      <c r="AI2" s="3" t="n"/>
+      <c r="Z2" s="2" t="n"/>
+      <c r="AA2" s="2" t="n"/>
+      <c r="AB2" s="2" t="n"/>
+      <c r="AC2" s="2" t="n"/>
+      <c r="AD2" s="2" t="n"/>
+      <c r="AE2" s="2" t="n"/>
+      <c r="AF2" s="2" t="n"/>
+      <c r="AG2" s="2" t="n"/>
+      <c r="AH2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>2101111680</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D3" s="9" t="inlineStr">
+      <c r="D3" s="7" t="inlineStr">
         <is>
           <t>00084</t>
         </is>
       </c>
-      <c r="E3" s="9" t="inlineStr">
+      <c r="E3" s="7" t="inlineStr">
         <is>
           <t>前沿交叉学科研究院</t>
         </is>
       </c>
-      <c r="F3" s="9" t="inlineStr">
+      <c r="F3" s="7" t="inlineStr">
         <is>
           <t>博士</t>
         </is>
       </c>
-      <c r="G3" s="9" t="inlineStr">
+      <c r="G3" s="8" t="inlineStr">
         <is>
           <t>非定向</t>
         </is>
       </c>
-      <c r="H3" s="9" t="inlineStr">
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>艾合丽曼·艾合买提</t>
         </is>
       </c>
-      <c r="I3" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J3" s="9" t="inlineStr">
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J3" s="7" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="K3" s="9" t="inlineStr">
+      <c r="K3" s="7" t="inlineStr">
         <is>
           <t>维吾尔族</t>
         </is>
       </c>
-      <c r="L3" s="9" t="inlineStr">
+      <c r="L3" s="8" t="inlineStr">
         <is>
           <t>普通</t>
         </is>
       </c>
-      <c r="M3" s="9" t="inlineStr">
+      <c r="M3" s="8" t="inlineStr">
         <is>
           <t>共青团员</t>
         </is>
       </c>
-      <c r="N3" s="9" t="inlineStr">
+      <c r="N3" s="7" t="inlineStr">
         <is>
           <t>会计学</t>
         </is>
       </c>
-      <c r="O3" s="9" t="inlineStr">
+      <c r="O3" s="8" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P3" s="9" t="inlineStr">
+      <c r="P3" s="8" t="inlineStr">
         <is>
           <t>20160901</t>
         </is>
       </c>
-      <c r="Q3" s="9" t="inlineStr">
+      <c r="Q3" s="8" t="inlineStr">
         <is>
           <t>20210701</t>
         </is>
       </c>
-      <c r="R3" s="9" t="inlineStr">
+      <c r="R3" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S3" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="T3" s="9" t="inlineStr">
+      <c r="S3" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="T3" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="U3" s="9" t="inlineStr">
+      <c r="U3" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="V3" s="9" t="n"/>
-      <c r="W3" s="9" t="inlineStr">
+      <c r="V3" s="8" t="n"/>
+      <c r="W3" s="8" t="inlineStr">
         <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="X3" s="9" t="inlineStr">
+      <c r="X3" s="8" t="inlineStr">
         <is>
           <t>兵团二中</t>
         </is>
       </c>
-      <c r="Y3" s="9" t="inlineStr">
+      <c r="Y3" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="Z3" s="9" t="inlineStr">
+      <c r="Z3" s="8" t="inlineStr">
         <is>
           <t>屯河区</t>
         </is>
       </c>
-      <c r="AA3" s="9" t="inlineStr">
+      <c r="AA3" s="8" t="inlineStr">
         <is>
           <t>柯坪路29号楼4单元601号</t>
         </is>
       </c>
-      <c r="AB3" s="9" t="inlineStr">
+      <c r="AB3" s="8" t="inlineStr">
         <is>
           <t>18810378316</t>
         </is>
       </c>
-      <c r="AC3" s="9" t="inlineStr">
+      <c r="AC3" s="8" t="inlineStr">
         <is>
           <t>1600017443@pku.edu.cn</t>
         </is>
       </c>
-      <c r="AD3" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AE3" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AF3" s="9" t="inlineStr">
+      <c r="AD3" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AE3" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AF3" s="8" t="inlineStr">
         <is>
           <t>18810378316</t>
         </is>
       </c>
-      <c r="AG3" s="9" t="n"/>
-      <c r="AH3" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AI3" s="9" t="n"/>
+      <c r="AG3" s="8" t="n"/>
+      <c r="AH3" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>2101111776</t>
         </is>
       </c>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D4" s="9" t="inlineStr">
+      <c r="D4" s="7" t="inlineStr">
         <is>
           <t>00084</t>
         </is>
       </c>
-      <c r="E4" s="9" t="inlineStr">
+      <c r="E4" s="7" t="inlineStr">
         <is>
           <t>前沿交叉学科研究院</t>
         </is>
       </c>
-      <c r="F4" s="9" t="inlineStr">
+      <c r="F4" s="7" t="inlineStr">
         <is>
           <t>博士</t>
         </is>
       </c>
-      <c r="G4" s="9" t="n"/>
-      <c r="H4" s="9" t="inlineStr">
+      <c r="G4" s="8" t="n"/>
+      <c r="H4" s="7" t="inlineStr">
         <is>
           <t>杨悠然</t>
         </is>
       </c>
-      <c r="I4" s="9" t="n"/>
-      <c r="J4" s="9" t="inlineStr">
+      <c r="I4" s="8" t="n"/>
+      <c r="J4" s="7" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="K4" s="9" t="inlineStr">
+      <c r="K4" s="7" t="inlineStr">
         <is>
           <t>汉族</t>
         </is>
       </c>
-      <c r="L4" s="9" t="n"/>
-      <c r="M4" s="9" t="n"/>
-      <c r="N4" s="9" t="inlineStr">
+      <c r="L4" s="8" t="n"/>
+      <c r="M4" s="8" t="n"/>
+      <c r="N4" s="7" t="inlineStr">
         <is>
           <t>生物学</t>
         </is>
       </c>
-      <c r="O4" s="9" t="n"/>
-      <c r="P4" s="9" t="n"/>
-      <c r="Q4" s="9" t="n"/>
-      <c r="R4" s="9" t="n"/>
-      <c r="S4" s="9" t="n"/>
-      <c r="T4" s="9" t="n"/>
-      <c r="U4" s="9" t="n"/>
-      <c r="V4" s="9" t="n"/>
-      <c r="W4" s="9" t="n"/>
-      <c r="X4" s="9" t="n"/>
-      <c r="Y4" s="9" t="n"/>
-      <c r="Z4" s="9" t="n"/>
-      <c r="AA4" s="9" t="n"/>
-      <c r="AB4" s="9" t="n"/>
-      <c r="AC4" s="9" t="n"/>
-      <c r="AD4" s="9" t="n"/>
-      <c r="AE4" s="9" t="n"/>
-      <c r="AF4" s="9" t="n"/>
-      <c r="AG4" s="9" t="n"/>
-      <c r="AH4" s="9" t="n"/>
-      <c r="AI4" s="9" t="n"/>
+      <c r="O4" s="8" t="n"/>
+      <c r="P4" s="8" t="n"/>
+      <c r="Q4" s="8" t="n"/>
+      <c r="R4" s="8" t="n"/>
+      <c r="S4" s="8" t="n"/>
+      <c r="T4" s="8" t="n"/>
+      <c r="U4" s="8" t="n"/>
+      <c r="V4" s="8" t="n"/>
+      <c r="W4" s="8" t="n"/>
+      <c r="X4" s="8" t="n"/>
+      <c r="Y4" s="8" t="n"/>
+      <c r="Z4" s="8" t="n"/>
+      <c r="AA4" s="8" t="n"/>
+      <c r="AB4" s="8" t="n"/>
+      <c r="AC4" s="8" t="n"/>
+      <c r="AD4" s="8" t="n"/>
+      <c r="AE4" s="8" t="n"/>
+      <c r="AF4" s="8" t="n"/>
+      <c r="AG4" s="8" t="n"/>
+      <c r="AH4" s="8" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>2101111679</t>
         </is>
       </c>
-      <c r="B5" s="9" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D5" s="9" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>00084</t>
         </is>
       </c>
-      <c r="E5" s="9" t="inlineStr">
+      <c r="E5" s="7" t="inlineStr">
         <is>
           <t>前沿交叉学科研究院</t>
         </is>
       </c>
-      <c r="F5" s="9" t="inlineStr">
+      <c r="F5" s="7" t="inlineStr">
         <is>
           <t>博士</t>
         </is>
       </c>
-      <c r="G5" s="9" t="inlineStr">
+      <c r="G5" s="8" t="inlineStr">
         <is>
           <t>非定向</t>
         </is>
       </c>
-      <c r="H5" s="9" t="inlineStr">
+      <c r="H5" s="7" t="inlineStr">
         <is>
           <t>朱丽得孜·努克</t>
         </is>
       </c>
-      <c r="I5" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J5" s="9" t="inlineStr">
+      <c r="I5" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J5" s="7" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="K5" s="9" t="inlineStr">
+      <c r="K5" s="7" t="inlineStr">
         <is>
           <t>哈萨克族</t>
         </is>
       </c>
-      <c r="L5" s="9" t="inlineStr">
+      <c r="L5" s="8" t="inlineStr">
         <is>
           <t>普通</t>
         </is>
       </c>
-      <c r="M5" s="9" t="inlineStr">
+      <c r="M5" s="8" t="inlineStr">
         <is>
           <t>共青团员</t>
         </is>
       </c>
-      <c r="N5" s="9" t="inlineStr">
+      <c r="N5" s="7" t="inlineStr">
         <is>
           <t>外国语言文学（国别和区域研究）</t>
         </is>
       </c>
-      <c r="O5" s="9" t="n">
+      <c r="O5" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="P5" s="9" t="n">
+      <c r="P5" s="8" t="n">
         <v>20210901</v>
       </c>
-      <c r="Q5" s="9" t="inlineStr">
+      <c r="Q5" s="8" t="inlineStr">
         <is>
           <t>20250701</t>
         </is>
       </c>
-      <c r="R5" s="9" t="inlineStr">
+      <c r="R5" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S5" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="T5" s="9" t="inlineStr">
+      <c r="S5" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="T5" s="8" t="inlineStr">
         <is>
           <t>博尔塔拉</t>
         </is>
       </c>
-      <c r="U5" s="9" t="inlineStr">
+      <c r="U5" s="8" t="inlineStr">
         <is>
           <t>博尔塔拉</t>
         </is>
       </c>
-      <c r="V5" s="9" t="n"/>
-      <c r="W5" s="9" t="inlineStr">
+      <c r="V5" s="8" t="n"/>
+      <c r="W5" s="8" t="inlineStr">
         <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="X5" s="9" t="inlineStr">
+      <c r="X5" s="8" t="inlineStr">
         <is>
           <t>博尔塔拉中学</t>
         </is>
       </c>
-      <c r="Y5" s="9" t="inlineStr">
+      <c r="Y5" s="8" t="inlineStr">
         <is>
           <t>博尔塔拉</t>
         </is>
       </c>
-      <c r="Z5" s="9" t="inlineStr">
+      <c r="Z5" s="8" t="inlineStr">
         <is>
           <t>温宿县</t>
         </is>
       </c>
-      <c r="AA5" s="9" t="inlineStr">
+      <c r="AA5" s="8" t="inlineStr">
         <is>
           <t>昆得仑牧场昆得仑队</t>
         </is>
       </c>
-      <c r="AB5" s="9" t="inlineStr">
+      <c r="AB5" s="8" t="inlineStr">
         <is>
           <t>17601017823</t>
         </is>
       </c>
-      <c r="AC5" s="9" t="inlineStr">
+      <c r="AC5" s="8" t="inlineStr">
         <is>
           <t>2101111679@pku.edu.cn</t>
         </is>
       </c>
-      <c r="AD5" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AE5" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AF5" s="9" t="inlineStr">
+      <c r="AD5" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AE5" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AF5" s="8" t="inlineStr">
         <is>
           <t>17808083793</t>
         </is>
       </c>
-      <c r="AG5" s="9" t="n"/>
-      <c r="AH5" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AI5" s="9" t="n"/>
+      <c r="AG5" s="8" t="n"/>
+      <c r="AH5" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>2001111477</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>00084</t>
         </is>
       </c>
-      <c r="E6" s="9" t="inlineStr">
+      <c r="E6" s="7" t="inlineStr">
         <is>
           <t>前沿交叉学科研究院</t>
         </is>
       </c>
-      <c r="F6" s="9" t="inlineStr">
+      <c r="F6" s="7" t="inlineStr">
         <is>
           <t>博士</t>
         </is>
       </c>
-      <c r="G6" s="9" t="n"/>
-      <c r="H6" s="9" t="inlineStr">
+      <c r="G6" s="8" t="n"/>
+      <c r="H6" s="7" t="inlineStr">
         <is>
           <t>张欣瑜</t>
         </is>
       </c>
-      <c r="I6" s="9" t="n"/>
-      <c r="J6" s="9" t="inlineStr">
+      <c r="I6" s="8" t="n"/>
+      <c r="J6" s="7" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="K6" s="9" t="inlineStr">
+      <c r="K6" s="7" t="inlineStr">
         <is>
           <t>汉族</t>
         </is>
       </c>
-      <c r="L6" s="9" t="n"/>
-      <c r="M6" s="9" t="n"/>
-      <c r="N6" s="9" t="inlineStr">
+      <c r="L6" s="8" t="n"/>
+      <c r="M6" s="8" t="n"/>
+      <c r="N6" s="7" t="inlineStr">
         <is>
           <t>纳米科学与技术（化学）</t>
         </is>
       </c>
-      <c r="O6" s="9" t="n"/>
-      <c r="P6" s="9" t="n"/>
-      <c r="Q6" s="9" t="n"/>
-      <c r="R6" s="9" t="n"/>
-      <c r="S6" s="9" t="n"/>
-      <c r="T6" s="9" t="n"/>
-      <c r="U6" s="9" t="n"/>
-      <c r="V6" s="9" t="n"/>
-      <c r="W6" s="9" t="n"/>
-      <c r="X6" s="9" t="n"/>
-      <c r="Y6" s="9" t="n"/>
-      <c r="Z6" s="9" t="n"/>
-      <c r="AA6" s="9" t="n"/>
-      <c r="AB6" s="9" t="n"/>
-      <c r="AC6" s="9" t="n"/>
-      <c r="AD6" s="9" t="n"/>
-      <c r="AE6" s="9" t="n"/>
-      <c r="AF6" s="9" t="n"/>
-      <c r="AG6" s="9" t="n"/>
-      <c r="AH6" s="9" t="n"/>
-      <c r="AI6" s="9" t="n"/>
+      <c r="O6" s="8" t="n"/>
+      <c r="P6" s="8" t="n"/>
+      <c r="Q6" s="8" t="n"/>
+      <c r="R6" s="8" t="n"/>
+      <c r="S6" s="8" t="n"/>
+      <c r="T6" s="8" t="n"/>
+      <c r="U6" s="8" t="n"/>
+      <c r="V6" s="8" t="n"/>
+      <c r="W6" s="8" t="n"/>
+      <c r="X6" s="8" t="n"/>
+      <c r="Y6" s="8" t="n"/>
+      <c r="Z6" s="8" t="n"/>
+      <c r="AA6" s="8" t="n"/>
+      <c r="AB6" s="8" t="n"/>
+      <c r="AC6" s="8" t="n"/>
+      <c r="AD6" s="8" t="n"/>
+      <c r="AE6" s="8" t="n"/>
+      <c r="AF6" s="8" t="n"/>
+      <c r="AG6" s="8" t="n"/>
+      <c r="AH6" s="8" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>2200012439</t>
         </is>
       </c>
-      <c r="B7" s="9" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D7" s="9" t="inlineStr">
+      <c r="D7" s="7" t="inlineStr">
         <is>
           <t>00012</t>
         </is>
       </c>
-      <c r="E7" s="9" t="inlineStr">
+      <c r="E7" s="7" t="inlineStr">
         <is>
           <t>地球与空间科学学院</t>
         </is>
       </c>
-      <c r="F7" s="9" t="inlineStr">
+      <c r="F7" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="G7" s="9" t="inlineStr">
+      <c r="G7" s="8" t="inlineStr">
         <is>
           <t>非定向</t>
         </is>
       </c>
-      <c r="H7" s="9" t="inlineStr">
+      <c r="H7" s="7" t="inlineStr">
         <is>
           <t>李嘉桐</t>
         </is>
       </c>
-      <c r="I7" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J7" s="9" t="inlineStr">
+      <c r="I7" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J7" s="7" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="K7" s="9" t="inlineStr">
+      <c r="K7" s="7" t="inlineStr">
         <is>
           <t>汉族</t>
         </is>
       </c>
-      <c r="L7" s="9" t="inlineStr">
+      <c r="L7" s="8" t="inlineStr">
         <is>
           <t>普通</t>
         </is>
       </c>
-      <c r="M7" s="9" t="inlineStr">
+      <c r="M7" s="8" t="inlineStr">
         <is>
           <t>共青团员</t>
         </is>
       </c>
-      <c r="N7" s="9" t="inlineStr">
+      <c r="N7" s="7" t="inlineStr">
         <is>
           <t>地球与空间科学</t>
         </is>
       </c>
-      <c r="O7" s="9" t="n">
+      <c r="O7" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="P7" s="9" t="n">
+      <c r="P7" s="8" t="n">
         <v>20220901</v>
       </c>
-      <c r="Q7" s="9" t="n">
+      <c r="Q7" s="8" t="n">
         <v>20260701</v>
       </c>
-      <c r="R7" s="9" t="inlineStr">
+      <c r="R7" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S7" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="T7" s="9" t="inlineStr">
+      <c r="S7" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="T7" s="8" t="inlineStr">
         <is>
           <t>哈密市</t>
         </is>
       </c>
-      <c r="U7" s="9" t="inlineStr">
+      <c r="U7" s="8" t="inlineStr">
         <is>
           <t>哈密市</t>
         </is>
       </c>
-      <c r="V7" s="9" t="n"/>
-      <c r="W7" s="9" t="inlineStr">
+      <c r="V7" s="8" t="n"/>
+      <c r="W7" s="8" t="inlineStr">
         <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="X7" s="9" t="inlineStr">
+      <c r="X7" s="8" t="inlineStr">
         <is>
           <t>哈密市第二中学</t>
         </is>
       </c>
-      <c r="Y7" s="9" t="inlineStr">
+      <c r="Y7" s="8" t="inlineStr">
         <is>
           <t>哈密地区</t>
         </is>
       </c>
-      <c r="Z7" s="9" t="inlineStr">
+      <c r="Z7" s="8" t="inlineStr">
         <is>
           <t>伊州区</t>
         </is>
       </c>
-      <c r="AA7" s="9" t="inlineStr">
+      <c r="AA7" s="8" t="inlineStr">
         <is>
           <t>新疆哈密市伊州区东河街道延安路50号院5栋4单元502室</t>
         </is>
       </c>
-      <c r="AB7" s="9" t="inlineStr">
+      <c r="AB7" s="8" t="inlineStr">
         <is>
           <t>18509025867</t>
         </is>
       </c>
-      <c r="AC7" s="9" t="inlineStr">
+      <c r="AC7" s="8" t="inlineStr">
         <is>
           <t>2200012439@stu.pku.edu.cn</t>
         </is>
       </c>
-      <c r="AD7" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AE7" s="9" t="inlineStr">
+      <c r="AD7" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AE7" s="8" t="inlineStr">
         <is>
           <t>有</t>
         </is>
       </c>
-      <c r="AF7" s="9" t="inlineStr">
+      <c r="AF7" s="8" t="inlineStr">
         <is>
           <t>13999446229</t>
         </is>
       </c>
-      <c r="AG7" s="9" t="n"/>
-      <c r="AH7" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AI7" s="9" t="n"/>
+      <c r="AG7" s="8" t="n"/>
+      <c r="AH7" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="inlineStr">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>2001110622</t>
         </is>
       </c>
-      <c r="B8" s="9" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D8" s="9" t="inlineStr">
+      <c r="D8" s="7" t="inlineStr">
         <is>
           <t>00012</t>
         </is>
       </c>
-      <c r="E8" s="9" t="inlineStr">
+      <c r="E8" s="7" t="inlineStr">
         <is>
           <t>地球与空间科学学院</t>
         </is>
       </c>
-      <c r="F8" s="9" t="inlineStr">
+      <c r="F8" s="7" t="inlineStr">
         <is>
           <t>博士</t>
         </is>
       </c>
-      <c r="G8" s="9" t="n"/>
-      <c r="H8" s="9" t="inlineStr">
+      <c r="G8" s="8" t="n"/>
+      <c r="H8" s="7" t="inlineStr">
         <is>
           <t>曹琰</t>
         </is>
       </c>
-      <c r="I8" s="9" t="n"/>
-      <c r="J8" s="9" t="inlineStr">
+      <c r="I8" s="8" t="n"/>
+      <c r="J8" s="7" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="K8" s="9" t="inlineStr">
+      <c r="K8" s="7" t="inlineStr">
         <is>
           <t>汉族</t>
         </is>
       </c>
-      <c r="L8" s="9" t="n"/>
-      <c r="M8" s="9" t="n"/>
-      <c r="N8" s="9" t="inlineStr">
+      <c r="L8" s="8" t="n"/>
+      <c r="M8" s="8" t="n"/>
+      <c r="N8" s="7" t="inlineStr">
         <is>
           <t>地质学（石油地质学）</t>
         </is>
       </c>
-      <c r="O8" s="9" t="n"/>
-      <c r="P8" s="9" t="n"/>
-      <c r="Q8" s="9" t="n"/>
-      <c r="R8" s="9" t="n"/>
-      <c r="S8" s="9" t="n"/>
-      <c r="T8" s="9" t="n"/>
-      <c r="U8" s="9" t="n"/>
-      <c r="V8" s="9" t="n"/>
-      <c r="W8" s="9" t="n"/>
-      <c r="X8" s="9" t="n"/>
-      <c r="Y8" s="9" t="n"/>
-      <c r="Z8" s="9" t="n"/>
-      <c r="AA8" s="9" t="n"/>
-      <c r="AB8" s="9" t="n"/>
-      <c r="AC8" s="9" t="n"/>
-      <c r="AD8" s="9" t="n"/>
-      <c r="AE8" s="9" t="n"/>
-      <c r="AF8" s="9" t="n"/>
-      <c r="AG8" s="9" t="n"/>
-      <c r="AH8" s="9" t="n"/>
-      <c r="AI8" s="9" t="n"/>
+      <c r="O8" s="8" t="n"/>
+      <c r="P8" s="8" t="n"/>
+      <c r="Q8" s="8" t="n"/>
+      <c r="R8" s="8" t="n"/>
+      <c r="S8" s="8" t="n"/>
+      <c r="T8" s="8" t="n"/>
+      <c r="U8" s="8" t="n"/>
+      <c r="V8" s="8" t="n"/>
+      <c r="W8" s="8" t="n"/>
+      <c r="X8" s="8" t="n"/>
+      <c r="Y8" s="8" t="n"/>
+      <c r="Z8" s="8" t="n"/>
+      <c r="AA8" s="8" t="n"/>
+      <c r="AB8" s="8" t="n"/>
+      <c r="AC8" s="8" t="n"/>
+      <c r="AD8" s="8" t="n"/>
+      <c r="AE8" s="8" t="n"/>
+      <c r="AF8" s="8" t="n"/>
+      <c r="AG8" s="8" t="n"/>
+      <c r="AH8" s="8" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="inlineStr">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>2000012450</t>
         </is>
       </c>
-      <c r="B9" s="9" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="7" t="inlineStr">
         <is>
           <t>00012</t>
         </is>
       </c>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="E9" s="7" t="inlineStr">
         <is>
           <t>地球与空间科学学院</t>
         </is>
       </c>
-      <c r="F9" s="9" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="G9" s="9" t="n"/>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="G9" s="8" t="n"/>
+      <c r="H9" s="7" t="inlineStr">
         <is>
           <t>李光于</t>
         </is>
       </c>
-      <c r="I9" s="9" t="n"/>
-      <c r="J9" s="9" t="inlineStr">
+      <c r="I9" s="8" t="n"/>
+      <c r="J9" s="7" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="K9" s="9" t="inlineStr">
+      <c r="K9" s="7" t="inlineStr">
         <is>
           <t>汉族</t>
         </is>
       </c>
-      <c r="L9" s="9" t="n"/>
-      <c r="M9" s="9" t="n"/>
-      <c r="N9" s="9" t="inlineStr">
+      <c r="L9" s="8" t="n"/>
+      <c r="M9" s="8" t="n"/>
+      <c r="N9" s="7" t="inlineStr">
         <is>
           <t>物理学（空间科学与技术方向）</t>
         </is>
       </c>
-      <c r="O9" s="9" t="n"/>
-      <c r="P9" s="9" t="n"/>
-      <c r="Q9" s="9" t="n"/>
-      <c r="R9" s="9" t="n"/>
-      <c r="S9" s="9" t="n"/>
-      <c r="T9" s="9" t="n"/>
-      <c r="U9" s="9" t="n"/>
-      <c r="V9" s="9" t="n"/>
-      <c r="W9" s="9" t="n"/>
-      <c r="X9" s="9" t="n"/>
-      <c r="Y9" s="9" t="n"/>
-      <c r="Z9" s="9" t="n"/>
-      <c r="AA9" s="9" t="n"/>
-      <c r="AB9" s="9" t="n"/>
-      <c r="AC9" s="9" t="n"/>
-      <c r="AD9" s="9" t="n"/>
-      <c r="AE9" s="9" t="n"/>
-      <c r="AF9" s="9" t="n"/>
-      <c r="AG9" s="9" t="n"/>
-      <c r="AH9" s="9" t="n"/>
-      <c r="AI9" s="9" t="n"/>
+      <c r="O9" s="8" t="n"/>
+      <c r="P9" s="8" t="n"/>
+      <c r="Q9" s="8" t="n"/>
+      <c r="R9" s="8" t="n"/>
+      <c r="S9" s="8" t="n"/>
+      <c r="T9" s="8" t="n"/>
+      <c r="U9" s="8" t="n"/>
+      <c r="V9" s="8" t="n"/>
+      <c r="W9" s="8" t="n"/>
+      <c r="X9" s="8" t="n"/>
+      <c r="Y9" s="8" t="n"/>
+      <c r="Z9" s="8" t="n"/>
+      <c r="AA9" s="8" t="n"/>
+      <c r="AB9" s="8" t="n"/>
+      <c r="AC9" s="8" t="n"/>
+      <c r="AD9" s="8" t="n"/>
+      <c r="AE9" s="8" t="n"/>
+      <c r="AF9" s="8" t="n"/>
+      <c r="AG9" s="8" t="n"/>
+      <c r="AH9" s="8" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="inlineStr">
+      <c r="A10" s="7" t="inlineStr">
         <is>
           <t>2300012563</t>
         </is>
       </c>
-      <c r="B10" s="9" t="inlineStr">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C10" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D10" s="9" t="inlineStr">
+      <c r="D10" s="7" t="inlineStr">
         <is>
           <t>00012</t>
         </is>
       </c>
-      <c r="E10" s="9" t="inlineStr">
+      <c r="E10" s="7" t="inlineStr">
         <is>
           <t>地球与空间科学学院</t>
         </is>
       </c>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="F10" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="G10" s="9" t="n"/>
-      <c r="H10" s="9" t="inlineStr">
+      <c r="G10" s="8" t="n"/>
+      <c r="H10" s="7" t="inlineStr">
         <is>
           <t>任佳媛</t>
         </is>
       </c>
-      <c r="I10" s="9" t="n"/>
-      <c r="J10" s="9" t="inlineStr">
+      <c r="I10" s="8" t="n"/>
+      <c r="J10" s="7" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="K10" s="9" t="inlineStr">
+      <c r="K10" s="7" t="inlineStr">
         <is>
           <t>汉族</t>
         </is>
       </c>
-      <c r="L10" s="9" t="n"/>
-      <c r="M10" s="9" t="n"/>
-      <c r="N10" s="9" t="inlineStr">
+      <c r="L10" s="8" t="n"/>
+      <c r="M10" s="8" t="n"/>
+      <c r="N10" s="7" t="inlineStr">
         <is>
           <t>生物科学(天体生物学方向)</t>
         </is>
       </c>
-      <c r="O10" s="9" t="n"/>
-      <c r="P10" s="9" t="n"/>
-      <c r="Q10" s="9" t="n"/>
-      <c r="R10" s="9" t="n"/>
-      <c r="S10" s="9" t="n"/>
-      <c r="T10" s="9" t="n"/>
-      <c r="U10" s="9" t="n"/>
-      <c r="V10" s="9" t="n"/>
-      <c r="W10" s="9" t="n"/>
-      <c r="X10" s="9" t="n"/>
-      <c r="Y10" s="9" t="n"/>
-      <c r="Z10" s="9" t="n"/>
-      <c r="AA10" s="9" t="n"/>
-      <c r="AB10" s="9" t="n"/>
-      <c r="AC10" s="9" t="n"/>
-      <c r="AD10" s="9" t="n"/>
-      <c r="AE10" s="9" t="n"/>
-      <c r="AF10" s="9" t="n"/>
-      <c r="AG10" s="9" t="n"/>
-      <c r="AH10" s="9" t="n"/>
-      <c r="AI10" s="9" t="n"/>
+      <c r="O10" s="8" t="n"/>
+      <c r="P10" s="8" t="n"/>
+      <c r="Q10" s="8" t="n"/>
+      <c r="R10" s="8" t="n"/>
+      <c r="S10" s="8" t="n"/>
+      <c r="T10" s="8" t="n"/>
+      <c r="U10" s="8" t="n"/>
+      <c r="V10" s="8" t="n"/>
+      <c r="W10" s="8" t="n"/>
+      <c r="X10" s="8" t="n"/>
+      <c r="Y10" s="8" t="n"/>
+      <c r="Z10" s="8" t="n"/>
+      <c r="AA10" s="8" t="n"/>
+      <c r="AB10" s="8" t="n"/>
+      <c r="AC10" s="8" t="n"/>
+      <c r="AD10" s="8" t="n"/>
+      <c r="AE10" s="8" t="n"/>
+      <c r="AF10" s="8" t="n"/>
+      <c r="AG10" s="8" t="n"/>
+      <c r="AH10" s="8" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="inlineStr">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>2000012617</t>
         </is>
       </c>
-      <c r="B11" s="9" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D11" s="9" t="inlineStr">
+      <c r="D11" s="7" t="inlineStr">
         <is>
           <t>00012</t>
         </is>
       </c>
-      <c r="E11" s="9" t="inlineStr">
+      <c r="E11" s="7" t="inlineStr">
         <is>
           <t>地球与空间科学学院</t>
         </is>
       </c>
-      <c r="F11" s="9" t="inlineStr">
+      <c r="F11" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="G11" s="9" t="n"/>
-      <c r="H11" s="9" t="inlineStr">
+      <c r="G11" s="8" t="n"/>
+      <c r="H11" s="7" t="inlineStr">
         <is>
           <t>薛子彤</t>
         </is>
       </c>
-      <c r="I11" s="9" t="n"/>
-      <c r="J11" s="9" t="inlineStr">
+      <c r="I11" s="8" t="n"/>
+      <c r="J11" s="7" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="K11" s="9" t="inlineStr">
+      <c r="K11" s="7" t="inlineStr">
         <is>
           <t>汉族</t>
         </is>
       </c>
-      <c r="L11" s="9" t="n"/>
-      <c r="M11" s="9" t="n"/>
-      <c r="N11" s="9" t="inlineStr">
+      <c r="L11" s="8" t="n"/>
+      <c r="M11" s="8" t="n"/>
+      <c r="N11" s="7" t="inlineStr">
         <is>
           <t>化学（地球化学方向）</t>
         </is>
       </c>
-      <c r="O11" s="9" t="n"/>
-      <c r="P11" s="9" t="n"/>
-      <c r="Q11" s="9" t="n"/>
-      <c r="R11" s="9" t="n"/>
-      <c r="S11" s="9" t="n"/>
-      <c r="T11" s="9" t="n"/>
-      <c r="U11" s="9" t="n"/>
-      <c r="V11" s="9" t="n"/>
-      <c r="W11" s="9" t="n"/>
-      <c r="X11" s="9" t="n"/>
-      <c r="Y11" s="9" t="n"/>
-      <c r="Z11" s="9" t="n"/>
-      <c r="AA11" s="9" t="n"/>
-      <c r="AB11" s="9" t="n"/>
-      <c r="AC11" s="9" t="n"/>
-      <c r="AD11" s="9" t="n"/>
-      <c r="AE11" s="9" t="n"/>
-      <c r="AF11" s="9" t="n"/>
-      <c r="AG11" s="9" t="n"/>
-      <c r="AH11" s="9" t="n"/>
-      <c r="AI11" s="9" t="n"/>
+      <c r="O11" s="8" t="n"/>
+      <c r="P11" s="8" t="n"/>
+      <c r="Q11" s="8" t="n"/>
+      <c r="R11" s="8" t="n"/>
+      <c r="S11" s="8" t="n"/>
+      <c r="T11" s="8" t="n"/>
+      <c r="U11" s="8" t="n"/>
+      <c r="V11" s="8" t="n"/>
+      <c r="W11" s="8" t="n"/>
+      <c r="X11" s="8" t="n"/>
+      <c r="Y11" s="8" t="n"/>
+      <c r="Z11" s="8" t="n"/>
+      <c r="AA11" s="8" t="n"/>
+      <c r="AB11" s="8" t="n"/>
+      <c r="AC11" s="8" t="n"/>
+      <c r="AD11" s="8" t="n"/>
+      <c r="AE11" s="8" t="n"/>
+      <c r="AF11" s="8" t="n"/>
+      <c r="AG11" s="8" t="n"/>
+      <c r="AH11" s="8" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="7" t="n">
         <v>1800012438</v>
       </c>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="C12" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D12" s="9" t="inlineStr">
+      <c r="D12" s="7" t="inlineStr">
         <is>
           <t>00012</t>
         </is>
       </c>
-      <c r="E12" s="9" t="inlineStr">
+      <c r="E12" s="7" t="inlineStr">
         <is>
           <t>地球与空间科学学院</t>
         </is>
       </c>
-      <c r="F12" s="9" t="inlineStr">
+      <c r="F12" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="G12" s="9" t="inlineStr">
+      <c r="G12" s="8" t="inlineStr">
         <is>
           <t>非定向</t>
         </is>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="7" t="inlineStr">
         <is>
           <t>马睿平</t>
         </is>
       </c>
-      <c r="I12" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J12" s="9" t="inlineStr">
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="K12" s="9" t="inlineStr">
+      <c r="K12" s="7" t="inlineStr">
         <is>
           <t>汉族</t>
         </is>
       </c>
-      <c r="L12" s="9" t="inlineStr">
+      <c r="L12" s="8" t="inlineStr">
         <is>
           <t>普通</t>
         </is>
       </c>
-      <c r="M12" s="9" t="inlineStr">
+      <c r="M12" s="8" t="inlineStr">
         <is>
           <t>共青团员</t>
         </is>
       </c>
-      <c r="N12" s="9" t="inlineStr">
+      <c r="N12" s="7" t="inlineStr">
         <is>
           <t>地理信息科学</t>
         </is>
       </c>
-      <c r="O12" s="9" t="inlineStr">
+      <c r="O12" s="8" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P12" s="9" t="inlineStr">
+      <c r="P12" s="8" t="inlineStr">
         <is>
           <t>20180901</t>
         </is>
       </c>
-      <c r="Q12" s="9" t="inlineStr">
+      <c r="Q12" s="8" t="inlineStr">
         <is>
           <t>20220701</t>
         </is>
       </c>
-      <c r="R12" s="9" t="inlineStr">
+      <c r="R12" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S12" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="T12" s="9" t="inlineStr">
+      <c r="S12" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="T12" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="U12" s="9" t="inlineStr">
+      <c r="U12" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="V12" s="9" t="n"/>
-      <c r="W12" s="9" t="inlineStr">
+      <c r="V12" s="8" t="n"/>
+      <c r="W12" s="8" t="inlineStr">
         <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="X12" s="9" t="inlineStr">
+      <c r="X12" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市第一中学</t>
         </is>
       </c>
-      <c r="Y12" s="9" t="inlineStr">
+      <c r="Y12" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="Z12" s="9" t="inlineStr">
+      <c r="Z12" s="8" t="inlineStr">
         <is>
           <t>新市区</t>
         </is>
       </c>
-      <c r="AA12" s="9" t="inlineStr">
+      <c r="AA12" s="8" t="inlineStr">
         <is>
           <t>天津北路176号八号楼二单元501</t>
         </is>
       </c>
-      <c r="AB12" s="9" t="inlineStr">
+      <c r="AB12" s="8" t="inlineStr">
         <is>
           <t>18801210733</t>
         </is>
       </c>
-      <c r="AC12" s="9" t="inlineStr">
+      <c r="AC12" s="8" t="inlineStr">
         <is>
           <t>1800012438@pku.edu.cn</t>
         </is>
       </c>
-      <c r="AD12" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AE12" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AF12" s="9" t="inlineStr">
+      <c r="AD12" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AE12" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AF12" s="8" t="inlineStr">
         <is>
           <t>18801210733</t>
         </is>
       </c>
-      <c r="AG12" s="9" t="n"/>
-      <c r="AH12" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AI12" s="9" t="n"/>
+      <c r="AG12" s="8" t="n"/>
+      <c r="AH12" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="inlineStr">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>2200013317</t>
         </is>
       </c>
-      <c r="B13" s="9" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C13" s="9" t="inlineStr">
+      <c r="C13" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D13" s="9" t="inlineStr">
+      <c r="D13" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E13" s="9" t="inlineStr">
+      <c r="E13" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F13" s="9" t="inlineStr">
+      <c r="F13" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="G13" s="9" t="inlineStr">
+      <c r="G13" s="8" t="inlineStr">
         <is>
           <t>非定向</t>
         </is>
       </c>
-      <c r="H13" s="9" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr">
         <is>
           <t>索林格</t>
         </is>
       </c>
-      <c r="I13" s="9" t="inlineStr">
+      <c r="I13" s="8" t="inlineStr">
         <is>
           <t>萨林格</t>
         </is>
       </c>
-      <c r="J13" s="9" t="inlineStr">
+      <c r="J13" s="7" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="K13" s="9" t="inlineStr">
+      <c r="K13" s="7" t="inlineStr">
         <is>
           <t>蒙古族</t>
         </is>
       </c>
-      <c r="L13" s="9" t="inlineStr">
+      <c r="L13" s="8" t="inlineStr">
         <is>
           <t>内高</t>
         </is>
       </c>
-      <c r="M13" s="9" t="inlineStr">
+      <c r="M13" s="8" t="inlineStr">
         <is>
           <t>共青团员</t>
         </is>
       </c>
-      <c r="N13" s="9" t="inlineStr">
+      <c r="N13" s="7" t="inlineStr">
         <is>
           <t>环境科学类</t>
         </is>
       </c>
-      <c r="O13" s="9" t="n">
+      <c r="O13" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="P13" s="9" t="n">
+      <c r="P13" s="8" t="n">
         <v>20220828</v>
       </c>
-      <c r="Q13" s="9" t="n">
+      <c r="Q13" s="8" t="n">
         <v>20260701</v>
       </c>
-      <c r="R13" s="9" t="inlineStr">
+      <c r="R13" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S13" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="T13" s="9" t="inlineStr">
+      <c r="S13" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="T13" s="8" t="inlineStr">
         <is>
           <t>塔城地区</t>
         </is>
       </c>
-      <c r="U13" s="9" t="inlineStr">
+      <c r="U13" s="8" t="inlineStr">
         <is>
           <t>塔城地区</t>
         </is>
       </c>
-      <c r="V13" s="9" t="n"/>
-      <c r="W13" s="9" t="inlineStr">
+      <c r="V13" s="8" t="n"/>
+      <c r="W13" s="8" t="inlineStr">
         <is>
           <t>农村</t>
         </is>
       </c>
-      <c r="X13" s="9" t="inlineStr">
+      <c r="X13" s="8" t="inlineStr">
         <is>
           <t>天津市第九十五中学益中学校</t>
         </is>
       </c>
-      <c r="Y13" s="9" t="inlineStr">
+      <c r="Y13" s="8" t="inlineStr">
         <is>
           <t>塔城地区</t>
         </is>
       </c>
-      <c r="Z13" s="9" t="inlineStr">
+      <c r="Z13" s="8" t="inlineStr">
         <is>
           <t>新疆塔城地区</t>
         </is>
       </c>
-      <c r="AA13" s="9" t="inlineStr">
+      <c r="AA13" s="8" t="inlineStr">
         <is>
           <t>新疆塔城地区额敏县上户镇</t>
         </is>
       </c>
-      <c r="AB13" s="9" t="n">
+      <c r="AB13" s="8" t="n">
         <v>13199788671</v>
       </c>
-      <c r="AC13" s="9" t="inlineStr">
+      <c r="AC13" s="8" t="inlineStr">
         <is>
           <t>suolg@stu.pku.edu.cn</t>
         </is>
       </c>
-      <c r="AD13" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AE13" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AF13" s="9" t="n">
+      <c r="AD13" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AE13" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AF13" s="8" t="n">
         <v>18999480563</v>
       </c>
-      <c r="AG13" s="9" t="n"/>
-      <c r="AH13" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AI13" s="9" t="n"/>
+      <c r="AG13" s="8" t="n"/>
+      <c r="AH13" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="inlineStr">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>2200013440</t>
         </is>
       </c>
-      <c r="B14" s="9" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C14" s="9" t="inlineStr">
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="D14" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E14" s="9" t="inlineStr">
+      <c r="E14" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F14" s="9" t="inlineStr">
+      <c r="F14" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="G14" s="9" t="inlineStr">
+      <c r="G14" s="8" t="inlineStr">
         <is>
           <t>非定向</t>
         </is>
       </c>
-      <c r="H14" s="9" t="inlineStr">
+      <c r="H14" s="7" t="inlineStr">
         <is>
           <t>努拉依·艾布拉哈提</t>
         </is>
       </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J14" s="9" t="inlineStr">
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="K14" s="9" t="inlineStr">
+      <c r="K14" s="7" t="inlineStr">
         <is>
           <t>哈萨克族</t>
         </is>
       </c>
-      <c r="L14" s="9" t="inlineStr">
+      <c r="L14" s="8" t="inlineStr">
         <is>
           <t>内高</t>
         </is>
       </c>
-      <c r="M14" s="9" t="inlineStr">
+      <c r="M14" s="8" t="inlineStr">
         <is>
           <t>共青团员</t>
         </is>
       </c>
-      <c r="N14" s="9" t="inlineStr">
+      <c r="N14" s="7" t="inlineStr">
         <is>
           <t>城市规划类</t>
         </is>
       </c>
-      <c r="O14" s="9" t="n">
+      <c r="O14" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="P14" s="9" t="n">
+      <c r="P14" s="8" t="n">
         <v>20220901</v>
       </c>
-      <c r="Q14" s="9" t="n">
+      <c r="Q14" s="8" t="n">
         <v>20270701</v>
       </c>
-      <c r="R14" s="9" t="inlineStr">
+      <c r="R14" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S14" s="9" t="n">
+      <c r="S14" s="8" t="n">
         <v>20220828</v>
       </c>
-      <c r="T14" s="9" t="inlineStr">
+      <c r="T14" s="8" t="inlineStr">
         <is>
           <t>伊犁哈萨克自治州</t>
         </is>
       </c>
-      <c r="U14" s="9" t="inlineStr">
+      <c r="U14" s="8" t="inlineStr">
         <is>
           <t>伊犁哈萨克自治州</t>
         </is>
       </c>
-      <c r="V14" s="9" t="n"/>
-      <c r="W14" s="9" t="inlineStr">
+      <c r="V14" s="8" t="n"/>
+      <c r="W14" s="8" t="inlineStr">
         <is>
           <t>农村</t>
         </is>
       </c>
-      <c r="X14" s="9" t="inlineStr">
+      <c r="X14" s="8" t="inlineStr">
         <is>
           <t>北京市第十中学</t>
         </is>
       </c>
-      <c r="Y14" s="9" t="inlineStr">
+      <c r="Y14" s="8" t="inlineStr">
         <is>
           <t>伊犁哈萨克自治州</t>
         </is>
       </c>
-      <c r="Z14" s="9" t="inlineStr">
+      <c r="Z14" s="8" t="inlineStr">
         <is>
           <t>特克斯县</t>
         </is>
       </c>
-      <c r="AA14" s="9" t="inlineStr">
+      <c r="AA14" s="8" t="inlineStr">
         <is>
           <t>古勒巴格街三环路一号巷11号</t>
         </is>
       </c>
-      <c r="AB14" s="9" t="n">
+      <c r="AB14" s="8" t="n">
         <v>18119220965</v>
       </c>
-      <c r="AC14" s="9" t="inlineStr">
+      <c r="AC14" s="8" t="inlineStr">
         <is>
           <t>2398066800@qq.com</t>
         </is>
       </c>
-      <c r="AD14" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AE14" s="9" t="inlineStr">
+      <c r="AD14" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AE14" s="8" t="inlineStr">
         <is>
           <t>有</t>
         </is>
       </c>
-      <c r="AF14" s="9" t="n">
+      <c r="AF14" s="8" t="n">
         <v>15981729662</v>
       </c>
-      <c r="AG14" s="9" t="n"/>
-      <c r="AH14" s="9" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AI14" s="9" t="n"/>
+      <c r="AG14" s="8" t="n"/>
+      <c r="AH14" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="inlineStr">
+      <c r="A15" s="7" t="inlineStr">
         <is>
           <t>2000013235</t>
         </is>
       </c>
-      <c r="B15" s="9" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C15" s="9" t="inlineStr">
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D15" s="9" t="inlineStr">
+      <c r="D15" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E15" s="9" t="inlineStr">
+      <c r="E15" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F15" s="9" t="inlineStr">
+      <c r="F15" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="G15" s="9" t="n"/>
-      <c r="H15" s="9" t="inlineStr">
+      <c r="G15" s="8" t="n"/>
+      <c r="H15" s="7" t="inlineStr">
         <is>
           <t>裴音哲</t>
         </is>
       </c>
-      <c r="I15" s="9" t="n"/>
-      <c r="J15" s="9" t="inlineStr">
+      <c r="I15" s="8" t="n"/>
+      <c r="J15" s="7" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="K15" s="9" t="inlineStr">
+      <c r="K15" s="7" t="inlineStr">
         <is>
           <t>蒙古族</t>
         </is>
       </c>
-      <c r="L15" s="9" t="n"/>
-      <c r="M15" s="9" t="n"/>
-      <c r="N15" s="9" t="inlineStr">
+      <c r="L15" s="8" t="n"/>
+      <c r="M15" s="8" t="n"/>
+      <c r="N15" s="7" t="inlineStr">
         <is>
           <t>环境科学</t>
         </is>
       </c>
-      <c r="O15" s="9" t="n"/>
-      <c r="P15" s="9" t="n"/>
-      <c r="Q15" s="9" t="n"/>
-      <c r="R15" s="9" t="n"/>
-      <c r="S15" s="9" t="n"/>
-      <c r="T15" s="9" t="n"/>
-      <c r="U15" s="9" t="n"/>
-      <c r="V15" s="9" t="n"/>
-      <c r="W15" s="9" t="n"/>
-      <c r="X15" s="9" t="n"/>
-      <c r="Y15" s="9" t="n"/>
-      <c r="Z15" s="9" t="n"/>
-      <c r="AA15" s="9" t="n"/>
-      <c r="AB15" s="9" t="n"/>
-      <c r="AC15" s="9" t="n"/>
-      <c r="AD15" s="9" t="n"/>
-      <c r="AE15" s="9" t="n"/>
-      <c r="AF15" s="9" t="n"/>
-      <c r="AG15" s="9" t="n"/>
-      <c r="AH15" s="9" t="n"/>
-      <c r="AI15" s="9" t="n"/>
+      <c r="O15" s="8" t="n"/>
+      <c r="P15" s="8" t="n"/>
+      <c r="Q15" s="8" t="n"/>
+      <c r="R15" s="8" t="n"/>
+      <c r="S15" s="8" t="n"/>
+      <c r="T15" s="8" t="n"/>
+      <c r="U15" s="8" t="n"/>
+      <c r="V15" s="8" t="n"/>
+      <c r="W15" s="8" t="n"/>
+      <c r="X15" s="8" t="n"/>
+      <c r="Y15" s="8" t="n"/>
+      <c r="Z15" s="8" t="n"/>
+      <c r="AA15" s="8" t="n"/>
+      <c r="AB15" s="8" t="n"/>
+      <c r="AC15" s="8" t="n"/>
+      <c r="AD15" s="8" t="n"/>
+      <c r="AE15" s="8" t="n"/>
+      <c r="AF15" s="8" t="n"/>
+      <c r="AG15" s="8" t="n"/>
+      <c r="AH15" s="8" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="7" t="inlineStr">
         <is>
           <t>2100013260</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" s="8" t="n"/>
+      <c r="H16" s="7" t="inlineStr">
         <is>
           <t>袁怡康</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="I16" s="8" t="n"/>
+      <c r="J16" s="7" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K16" s="7" t="inlineStr">
         <is>
           <t>汉族</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="L16" s="8" t="n"/>
+      <c r="M16" s="8" t="n"/>
+      <c r="N16" s="7" t="inlineStr">
         <is>
           <t>城乡规划</t>
         </is>
       </c>
+      <c r="O16" s="8" t="n"/>
+      <c r="P16" s="8" t="n"/>
+      <c r="Q16" s="8" t="n"/>
+      <c r="R16" s="8" t="n"/>
+      <c r="S16" s="8" t="n"/>
+      <c r="T16" s="8" t="n"/>
+      <c r="U16" s="8" t="n"/>
+      <c r="V16" s="8" t="n"/>
+      <c r="W16" s="8" t="n"/>
+      <c r="X16" s="8" t="n"/>
+      <c r="Y16" s="8" t="n"/>
+      <c r="Z16" s="8" t="n"/>
+      <c r="AA16" s="8" t="n"/>
+      <c r="AB16" s="8" t="n"/>
+      <c r="AC16" s="8" t="n"/>
+      <c r="AD16" s="8" t="n"/>
+      <c r="AE16" s="8" t="n"/>
+      <c r="AF16" s="8" t="n"/>
+      <c r="AG16" s="8" t="n"/>
+      <c r="AH16" s="8" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="7" t="inlineStr">
         <is>
           <t>2100013281</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" s="8" t="inlineStr">
         <is>
           <t>非定向</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" s="7" t="inlineStr">
         <is>
           <t>海日古丽·库万</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="I17" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J17" s="7" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K17" s="7" t="inlineStr">
         <is>
           <t>维吾尔族</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" s="8" t="inlineStr">
         <is>
           <t>内高</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M17" s="8" t="inlineStr">
         <is>
           <t>共青团员</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N17" s="7" t="inlineStr">
         <is>
           <t>环境科学</t>
         </is>
       </c>
-      <c r="O17" t="n">
+      <c r="O17" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17" s="8" t="n">
         <v>20210901</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" s="8" t="inlineStr">
         <is>
           <t>20250701</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R17" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
+      <c r="S17" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="T17" s="8" t="inlineStr">
         <is>
           <t>喀什地区</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="U17" s="8" t="inlineStr">
         <is>
           <t>喀什地区</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="V17" s="8" t="n"/>
+      <c r="W17" s="8" t="inlineStr">
         <is>
           <t>农村</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="X17" s="8" t="inlineStr">
         <is>
           <t>天津</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Y17" s="8" t="inlineStr">
         <is>
           <t>喀什地区</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="Z17" s="8" t="inlineStr">
         <is>
           <t>岳普湖县</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AA17" s="8" t="inlineStr">
         <is>
           <t>新疆岳普湖县岳普湖乡托万提更村1组026号</t>
         </is>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="8" t="n">
         <v>13051175255</v>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AC17" s="8" t="inlineStr">
         <is>
           <t>2100013281@stu.pku.edu.cn</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AF17" t="n">
+      <c r="AD17" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AE17" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AF17" s="8" t="n">
         <v>17881760880</v>
       </c>
-      <c r="AH17" t="inlineStr">
+      <c r="AG17" s="8" t="n"/>
+      <c r="AH17" s="8" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="7" t="inlineStr">
         <is>
           <t>2300013315</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="G18" s="8" t="n"/>
+      <c r="H18" s="7" t="inlineStr">
         <is>
           <t>扎克娅·艾克拜尔</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="I18" s="8" t="n"/>
+      <c r="J18" s="7" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K18" s="7" t="inlineStr">
         <is>
           <t>维吾尔族</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="L18" s="8" t="n"/>
+      <c r="M18" s="8" t="n"/>
+      <c r="N18" s="7" t="inlineStr">
         <is>
           <t>环境科学类</t>
         </is>
       </c>
+      <c r="O18" s="8" t="n"/>
+      <c r="P18" s="8" t="n"/>
+      <c r="Q18" s="8" t="n"/>
+      <c r="R18" s="8" t="n"/>
+      <c r="S18" s="8" t="n"/>
+      <c r="T18" s="8" t="n"/>
+      <c r="U18" s="8" t="n"/>
+      <c r="V18" s="8" t="n"/>
+      <c r="W18" s="8" t="n"/>
+      <c r="X18" s="8" t="n"/>
+      <c r="Y18" s="8" t="n"/>
+      <c r="Z18" s="8" t="n"/>
+      <c r="AA18" s="8" t="n"/>
+      <c r="AB18" s="8" t="n"/>
+      <c r="AC18" s="8" t="n"/>
+      <c r="AD18" s="8" t="n"/>
+      <c r="AE18" s="8" t="n"/>
+      <c r="AF18" s="8" t="n"/>
+      <c r="AG18" s="8" t="n"/>
+      <c r="AH18" s="8" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="7" t="inlineStr">
         <is>
           <t>1900013231</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="G19" s="8" t="n"/>
+      <c r="H19" s="7" t="inlineStr">
         <is>
           <t>马文浩</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="I19" s="8" t="n"/>
+      <c r="J19" s="7" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K19" s="7" t="inlineStr">
         <is>
           <t>回族</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="L19" s="8" t="n"/>
+      <c r="M19" s="8" t="n"/>
+      <c r="N19" s="7" t="inlineStr">
         <is>
           <t>城乡规划</t>
         </is>
       </c>
+      <c r="O19" s="8" t="n"/>
+      <c r="P19" s="8" t="n"/>
+      <c r="Q19" s="8" t="n"/>
+      <c r="R19" s="8" t="n"/>
+      <c r="S19" s="8" t="n"/>
+      <c r="T19" s="8" t="n"/>
+      <c r="U19" s="8" t="n"/>
+      <c r="V19" s="8" t="n"/>
+      <c r="W19" s="8" t="n"/>
+      <c r="X19" s="8" t="n"/>
+      <c r="Y19" s="8" t="n"/>
+      <c r="Z19" s="8" t="n"/>
+      <c r="AA19" s="8" t="n"/>
+      <c r="AB19" s="8" t="n"/>
+      <c r="AC19" s="8" t="n"/>
+      <c r="AD19" s="8" t="n"/>
+      <c r="AE19" s="8" t="n"/>
+      <c r="AF19" s="8" t="n"/>
+      <c r="AG19" s="8" t="n"/>
+      <c r="AH19" s="8" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="7" t="inlineStr">
         <is>
           <t>2000013233</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" s="8" t="inlineStr">
         <is>
           <t>非定向</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" s="7" t="inlineStr">
         <is>
           <t>伊力哈木·热则</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K20" s="7" t="inlineStr">
         <is>
           <t>维吾尔族</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" s="8" t="inlineStr">
         <is>
           <t>内高</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="M20" s="8" t="inlineStr">
         <is>
           <t>共青团员</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N20" s="7" t="inlineStr">
         <is>
           <t>环境科学</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="O20" s="8" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="P20" s="8" t="inlineStr">
         <is>
           <t>20200901</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" s="8" t="inlineStr">
         <is>
           <t>20240701</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="R20" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
+      <c r="S20" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="T20" s="8" t="inlineStr">
         <is>
           <t>喀什地区</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="U20" s="8" t="inlineStr">
         <is>
           <t>喀什地区</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="V20" s="8" t="n"/>
+      <c r="W20" s="8" t="inlineStr">
         <is>
           <t>农村</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="X20" s="8" t="inlineStr">
         <is>
           <t>天津市第九十五中学</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Y20" s="8" t="inlineStr">
         <is>
           <t>喀什地区</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="Z20" s="8" t="inlineStr">
         <is>
           <t>巴楚县</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AA20" s="8" t="inlineStr">
         <is>
           <t>阿拉格尔乡萨干吾斯塘村04组074号</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AB20" s="8" t="inlineStr">
         <is>
           <t>15569409408</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AC20" s="8" t="inlineStr">
         <is>
           <t>2000013233@pku.edu.cn</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
+      <c r="AD20" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AE20" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AF20" s="8" t="inlineStr">
         <is>
           <t>15569409408</t>
         </is>
       </c>
-      <c r="AH20" t="inlineStr">
+      <c r="AG20" s="8" t="n"/>
+      <c r="AH20" s="8" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="7" t="inlineStr">
         <is>
           <t>2300013308</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="G21" s="8" t="n"/>
+      <c r="H21" s="7" t="inlineStr">
         <is>
           <t>汤林河</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="I21" s="8" t="n"/>
+      <c r="J21" s="7" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K21" s="7" t="inlineStr">
         <is>
           <t>汉族</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="L21" s="8" t="n"/>
+      <c r="M21" s="8" t="n"/>
+      <c r="N21" s="7" t="inlineStr">
         <is>
           <t>环境科学类</t>
         </is>
       </c>
+      <c r="O21" s="8" t="n"/>
+      <c r="P21" s="8" t="n"/>
+      <c r="Q21" s="8" t="n"/>
+      <c r="R21" s="8" t="n"/>
+      <c r="S21" s="8" t="n"/>
+      <c r="T21" s="8" t="n"/>
+      <c r="U21" s="8" t="n"/>
+      <c r="V21" s="8" t="n"/>
+      <c r="W21" s="8" t="n"/>
+      <c r="X21" s="8" t="n"/>
+      <c r="Y21" s="8" t="n"/>
+      <c r="Z21" s="8" t="n"/>
+      <c r="AA21" s="8" t="n"/>
+      <c r="AB21" s="8" t="n"/>
+      <c r="AC21" s="8" t="n"/>
+      <c r="AD21" s="8" t="n"/>
+      <c r="AE21" s="8" t="n"/>
+      <c r="AF21" s="8" t="n"/>
+      <c r="AG21" s="8" t="n"/>
+      <c r="AH21" s="8" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="7" t="inlineStr">
         <is>
           <t>2200013306</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G22" s="8" t="inlineStr">
         <is>
           <t>非定向</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H22" s="7" t="inlineStr">
         <is>
           <t>李杨铭锴</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="I22" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J22" s="7" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="K22" s="7" t="inlineStr">
         <is>
           <t>汉族</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" s="8" t="inlineStr">
         <is>
           <t>普通</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="M22" s="8" t="inlineStr">
         <is>
           <t>群众</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="N22" s="7" t="inlineStr">
         <is>
           <t>环境科学类</t>
         </is>
       </c>
-      <c r="O22" t="n">
+      <c r="O22" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22" s="8" t="n">
         <v>20220828</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22" s="8" t="n">
         <v>20260701</v>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="R22" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
+      <c r="S22" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="T22" s="8" t="inlineStr">
         <is>
           <t>阿克苏地区</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="U22" s="8" t="inlineStr">
         <is>
           <t>阿克苏地区</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="V22" s="8" t="n"/>
+      <c r="W22" s="8" t="inlineStr">
         <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="X22" s="8" t="inlineStr">
         <is>
           <t>阿克苏地区第二中学</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="Y22" s="8" t="inlineStr">
         <is>
           <t>阿克苏地区</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="Z22" s="8" t="inlineStr">
         <is>
           <t>阿克苏市</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AA22" s="8" t="inlineStr">
         <is>
           <t>祥和里小区16号楼单元502室</t>
         </is>
       </c>
-      <c r="AB22" t="n">
+      <c r="AB22" s="8" t="n">
         <v>18196305723</v>
       </c>
-      <c r="AC22" t="inlineStr">
+      <c r="AC22" s="8" t="inlineStr">
         <is>
           <t>1719096080@qq.com</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AF22" t="n">
+      <c r="AD22" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AE22" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AF22" s="8" t="n">
         <v>18196305723</v>
       </c>
-      <c r="AH22" t="inlineStr">
+      <c r="AG22" s="8" t="n"/>
+      <c r="AH22" s="8" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="7" t="inlineStr">
         <is>
           <t>2300013316</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="G23" s="8" t="n"/>
+      <c r="H23" s="7" t="inlineStr">
         <is>
           <t>王玺傲</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="I23" s="8" t="n"/>
+      <c r="J23" s="7" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="K23" s="7" t="inlineStr">
         <is>
           <t>蒙古族</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="L23" s="8" t="n"/>
+      <c r="M23" s="8" t="n"/>
+      <c r="N23" s="7" t="inlineStr">
         <is>
           <t>环境科学类</t>
         </is>
       </c>
+      <c r="O23" s="8" t="n"/>
+      <c r="P23" s="8" t="n"/>
+      <c r="Q23" s="8" t="n"/>
+      <c r="R23" s="8" t="n"/>
+      <c r="S23" s="8" t="n"/>
+      <c r="T23" s="8" t="n"/>
+      <c r="U23" s="8" t="n"/>
+      <c r="V23" s="8" t="n"/>
+      <c r="W23" s="8" t="n"/>
+      <c r="X23" s="8" t="n"/>
+      <c r="Y23" s="8" t="n"/>
+      <c r="Z23" s="8" t="n"/>
+      <c r="AA23" s="8" t="n"/>
+      <c r="AB23" s="8" t="n"/>
+      <c r="AC23" s="8" t="n"/>
+      <c r="AD23" s="8" t="n"/>
+      <c r="AE23" s="8" t="n"/>
+      <c r="AF23" s="8" t="n"/>
+      <c r="AG23" s="8" t="n"/>
+      <c r="AH23" s="8" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="7" t="inlineStr">
         <is>
           <t>2100013215</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="G24" s="8" t="n"/>
+      <c r="H24" s="7" t="inlineStr">
         <is>
           <t>杨东桦</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="I24" s="8" t="n"/>
+      <c r="J24" s="7" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="K24" s="7" t="inlineStr">
         <is>
           <t>汉族</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="L24" s="8" t="n"/>
+      <c r="M24" s="8" t="n"/>
+      <c r="N24" s="7" t="inlineStr">
         <is>
           <t>生态学</t>
         </is>
       </c>
+      <c r="O24" s="8" t="n"/>
+      <c r="P24" s="8" t="n"/>
+      <c r="Q24" s="8" t="n"/>
+      <c r="R24" s="8" t="n"/>
+      <c r="S24" s="8" t="n"/>
+      <c r="T24" s="8" t="n"/>
+      <c r="U24" s="8" t="n"/>
+      <c r="V24" s="8" t="n"/>
+      <c r="W24" s="8" t="n"/>
+      <c r="X24" s="8" t="n"/>
+      <c r="Y24" s="8" t="n"/>
+      <c r="Z24" s="8" t="n"/>
+      <c r="AA24" s="8" t="n"/>
+      <c r="AB24" s="8" t="n"/>
+      <c r="AC24" s="8" t="n"/>
+      <c r="AD24" s="8" t="n"/>
+      <c r="AE24" s="8" t="n"/>
+      <c r="AF24" s="8" t="n"/>
+      <c r="AG24" s="8" t="n"/>
+      <c r="AH24" s="8" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="7" t="inlineStr">
         <is>
           <t>2300013435</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="G25" s="8" t="n"/>
+      <c r="H25" s="7" t="inlineStr">
         <is>
           <t>王誉婷</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="I25" s="8" t="n"/>
+      <c r="J25" s="7" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="K25" s="7" t="inlineStr">
         <is>
           <t>汉族</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="L25" s="8" t="n"/>
+      <c r="M25" s="8" t="n"/>
+      <c r="N25" s="7" t="inlineStr">
         <is>
           <t>城市规划类</t>
         </is>
       </c>
+      <c r="O25" s="8" t="n"/>
+      <c r="P25" s="8" t="n"/>
+      <c r="Q25" s="8" t="n"/>
+      <c r="R25" s="8" t="n"/>
+      <c r="S25" s="8" t="n"/>
+      <c r="T25" s="8" t="n"/>
+      <c r="U25" s="8" t="n"/>
+      <c r="V25" s="8" t="n"/>
+      <c r="W25" s="8" t="n"/>
+      <c r="X25" s="8" t="n"/>
+      <c r="Y25" s="8" t="n"/>
+      <c r="Z25" s="8" t="n"/>
+      <c r="AA25" s="8" t="n"/>
+      <c r="AB25" s="8" t="n"/>
+      <c r="AC25" s="8" t="n"/>
+      <c r="AD25" s="8" t="n"/>
+      <c r="AE25" s="8" t="n"/>
+      <c r="AF25" s="8" t="n"/>
+      <c r="AG25" s="8" t="n"/>
+      <c r="AH25" s="8" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="7" t="inlineStr">
         <is>
           <t>1901111761</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="7" t="inlineStr">
         <is>
           <t>博士</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" s="8" t="n"/>
+      <c r="H26" s="7" t="inlineStr">
         <is>
           <t>葛文东</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="I26" s="8" t="n"/>
+      <c r="J26" s="7" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="K26" s="7" t="inlineStr">
         <is>
           <t>汉族</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="L26" s="8" t="n"/>
+      <c r="M26" s="8" t="n"/>
+      <c r="N26" s="7" t="inlineStr">
         <is>
           <t>地理学（环境地理学）</t>
         </is>
       </c>
+      <c r="O26" s="8" t="n"/>
+      <c r="P26" s="8" t="n"/>
+      <c r="Q26" s="8" t="n"/>
+      <c r="R26" s="8" t="n"/>
+      <c r="S26" s="8" t="n"/>
+      <c r="T26" s="8" t="n"/>
+      <c r="U26" s="8" t="n"/>
+      <c r="V26" s="8" t="n"/>
+      <c r="W26" s="8" t="n"/>
+      <c r="X26" s="8" t="n"/>
+      <c r="Y26" s="8" t="n"/>
+      <c r="Z26" s="8" t="n"/>
+      <c r="AA26" s="8" t="n"/>
+      <c r="AB26" s="8" t="n"/>
+      <c r="AC26" s="8" t="n"/>
+      <c r="AD26" s="8" t="n"/>
+      <c r="AE26" s="8" t="n"/>
+      <c r="AF26" s="8" t="n"/>
+      <c r="AG26" s="8" t="n"/>
+      <c r="AH26" s="8" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="7" t="inlineStr">
         <is>
           <t>2200013437</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G27" s="8" t="inlineStr">
         <is>
           <t>非定向</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H27" s="7" t="inlineStr">
         <is>
           <t>杨济远</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J27" s="7" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="K27" s="7" t="inlineStr">
         <is>
           <t>汉族</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" s="8" t="inlineStr">
         <is>
           <t>普通</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="M27" s="8" t="inlineStr">
         <is>
           <t>共青团员</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="N27" s="7" t="inlineStr">
         <is>
           <t>城市规划类</t>
         </is>
       </c>
-      <c r="O27" t="n">
+      <c r="O27" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P27" s="8" t="n">
         <v>20220902</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27" s="8" t="n">
         <v>20270701</v>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="R27" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
+      <c r="S27" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="T27" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="U27" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
+      <c r="V27" s="8" t="n"/>
+      <c r="W27" s="8" t="inlineStr">
         <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr">
+      <c r="X27" s="8" t="inlineStr">
         <is>
           <t>兵团第二中学</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="Y27" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="Z27" s="8" t="inlineStr">
         <is>
           <t>头屯河区</t>
         </is>
       </c>
-      <c r="AA27" t="inlineStr">
+      <c r="AA27" s="8" t="inlineStr">
         <is>
           <t>新疆乌鲁木齐市头屯河区钢新路100号3区105栋3单元601</t>
         </is>
       </c>
-      <c r="AB27" t="n">
+      <c r="AB27" s="8" t="n">
         <v>17591668265</v>
       </c>
-      <c r="AC27" t="inlineStr">
+      <c r="AC27" s="8" t="inlineStr">
         <is>
           <t>2021516240@qq.com</t>
         </is>
       </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AF27" t="n">
+      <c r="AD27" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AE27" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AF27" s="8" t="n">
         <v>13659971132</v>
       </c>
-      <c r="AH27" t="inlineStr">
+      <c r="AG27" s="8" t="n"/>
+      <c r="AH27" s="8" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="7" t="inlineStr">
         <is>
           <t>2000013212</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="G28" s="8" t="n"/>
+      <c r="H28" s="7" t="inlineStr">
         <is>
           <t>江济舟</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="I28" s="8" t="n"/>
+      <c r="J28" s="7" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="K28" s="7" t="inlineStr">
         <is>
           <t>汉族</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="L28" s="8" t="n"/>
+      <c r="M28" s="8" t="n"/>
+      <c r="N28" s="7" t="inlineStr">
         <is>
           <t>人文地理与城乡规划</t>
         </is>
       </c>
+      <c r="O28" s="8" t="n"/>
+      <c r="P28" s="8" t="n"/>
+      <c r="Q28" s="8" t="n"/>
+      <c r="R28" s="8" t="n"/>
+      <c r="S28" s="8" t="n"/>
+      <c r="T28" s="8" t="n"/>
+      <c r="U28" s="8" t="n"/>
+      <c r="V28" s="8" t="n"/>
+      <c r="W28" s="8" t="n"/>
+      <c r="X28" s="8" t="n"/>
+      <c r="Y28" s="8" t="n"/>
+      <c r="Z28" s="8" t="n"/>
+      <c r="AA28" s="8" t="n"/>
+      <c r="AB28" s="8" t="n"/>
+      <c r="AC28" s="8" t="n"/>
+      <c r="AD28" s="8" t="n"/>
+      <c r="AE28" s="8" t="n"/>
+      <c r="AF28" s="8" t="n"/>
+      <c r="AG28" s="8" t="n"/>
+      <c r="AH28" s="8" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="7" t="inlineStr">
         <is>
           <t>2200013316</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G29" s="8" t="inlineStr">
         <is>
           <t>非定向</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H29" s="7" t="inlineStr">
         <is>
           <t>萨仁娜</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I29" s="8" t="inlineStr">
         <is>
           <t>郭皓宁</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J29" s="7" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K29" s="7" t="inlineStr">
         <is>
           <t>蒙古族</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" s="8" t="inlineStr">
         <is>
           <t>普通</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="M29" s="8" t="inlineStr">
         <is>
           <t>共青团员</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N29" s="7" t="inlineStr">
         <is>
           <t>环境科学类</t>
         </is>
       </c>
-      <c r="O29" t="n">
+      <c r="O29" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P29" s="8" t="n">
         <v>20220905</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29" s="8" t="n">
         <v>20260701</v>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="R29" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
+      <c r="S29" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="T29" s="8" t="inlineStr">
         <is>
           <t>巴音郭楞蒙古自治州</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="U29" s="8" t="inlineStr">
         <is>
           <t>北京市</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
+      <c r="V29" s="8" t="n"/>
+      <c r="W29" s="8" t="inlineStr">
         <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="X29" s="8" t="inlineStr">
         <is>
           <t>衡水中学实验学校</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="Y29" s="8" t="inlineStr">
         <is>
           <t>巴音郭楞蒙古自治州</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="Z29" s="8" t="inlineStr">
         <is>
           <t>库尔勒市</t>
         </is>
       </c>
-      <c r="AA29" t="inlineStr">
+      <c r="AA29" s="8" t="inlineStr">
         <is>
           <t>人民东路紫御苑1-1202</t>
         </is>
       </c>
-      <c r="AB29" t="n">
+      <c r="AB29" s="8" t="n">
         <v>18139088505</v>
       </c>
-      <c r="AC29" t="inlineStr">
+      <c r="AC29" s="8" t="inlineStr">
         <is>
           <t>2200013316@stu.pku.edu.cn</t>
         </is>
       </c>
-      <c r="AD29" t="inlineStr">
+      <c r="AD29" s="8" t="inlineStr">
         <is>
           <t>E71080484（自持）</t>
         </is>
       </c>
-      <c r="AE29" t="inlineStr">
+      <c r="AE29" s="8" t="inlineStr">
         <is>
           <t>有</t>
         </is>
       </c>
-      <c r="AF29" t="n">
+      <c r="AF29" s="8" t="n">
         <v>18099966727</v>
       </c>
-      <c r="AH29" t="inlineStr">
+      <c r="AG29" s="8" t="n"/>
+      <c r="AH29" s="8" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="7" t="inlineStr">
         <is>
           <t>2001213336</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" s="7" t="inlineStr">
         <is>
           <t>硕士</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G30" s="8" t="inlineStr">
         <is>
           <t>非定向</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H30" s="7" t="inlineStr">
         <is>
           <t>吾拉哈提·阿达力别克</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="I30" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J30" s="7" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="K30" s="7" t="inlineStr">
         <is>
           <t>哈萨克族</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" s="8" t="inlineStr">
         <is>
           <t>普通</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="M30" s="8" t="inlineStr">
         <is>
           <t>共青团员</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="N30" s="7" t="inlineStr">
         <is>
           <t>自然地理学</t>
         </is>
       </c>
-      <c r="O30" t="n">
+      <c r="O30" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P30" s="8" t="n">
         <v>20200901</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30" s="8" t="n">
         <v>20230630</v>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="R30" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
+      <c r="S30" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="T30" s="8" t="inlineStr">
         <is>
           <t>阿勒泰地区</t>
         </is>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="U30" s="8" t="inlineStr">
         <is>
           <t>阿勒泰地区</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr">
+      <c r="V30" s="8" t="n"/>
+      <c r="W30" s="8" t="inlineStr">
         <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr">
+      <c r="X30" s="8" t="inlineStr">
         <is>
           <t>阿勒泰地区第二高级中学</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="Y30" s="8" t="inlineStr">
         <is>
           <t>阿勒泰地区</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="Z30" s="8" t="inlineStr">
         <is>
           <t>阿勒泰市</t>
         </is>
       </c>
-      <c r="AA30" t="inlineStr">
+      <c r="AA30" s="8" t="inlineStr">
         <is>
           <t>黄金河谷小区20号楼1单元301</t>
         </is>
       </c>
-      <c r="AB30" t="n">
+      <c r="AB30" s="8" t="n">
         <v>18800192763</v>
       </c>
-      <c r="AC30" t="inlineStr">
+      <c r="AC30" s="8" t="inlineStr">
         <is>
           <t>ulahat_adal@pku.edu.cn</t>
         </is>
       </c>
-      <c r="AD30" t="inlineStr">
+      <c r="AD30" s="8" t="inlineStr">
         <is>
           <t>EG7068807（自持）</t>
         </is>
       </c>
-      <c r="AE30" t="inlineStr">
+      <c r="AE30" s="8" t="inlineStr">
         <is>
           <t>有</t>
         </is>
       </c>
-      <c r="AF30" t="n">
+      <c r="AF30" s="8" t="n">
         <v>18129055318</v>
       </c>
-      <c r="AH30" t="inlineStr">
+      <c r="AG30" s="8" t="n"/>
+      <c r="AH30" s="8" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="7" t="inlineStr">
         <is>
           <t>2101112067</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="7" t="inlineStr">
         <is>
           <t>博士</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G31" s="8" t="inlineStr">
         <is>
           <t>委培</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H31" s="7" t="inlineStr">
         <is>
           <t>木哈代思·艾日肯</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J31" s="7" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K31" s="7" t="inlineStr">
         <is>
           <t>维吾尔族</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" s="8" t="inlineStr">
         <is>
           <t>普通</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="M31" s="8" t="inlineStr">
         <is>
           <t>中共党员</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="N31" s="7" t="inlineStr">
         <is>
           <t>自然地理学</t>
         </is>
       </c>
-      <c r="O31" t="n">
+      <c r="O31" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P31" s="8" t="n">
         <v>20210901</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q31" s="8" t="inlineStr">
         <is>
           <t>20250701</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="R31" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
+      <c r="S31" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="T31" s="8" t="inlineStr">
         <is>
           <t>巴音郭楞蒙古自治州</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="U31" s="8" t="inlineStr">
         <is>
           <t>巴音郭楞蒙古自治州</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
+      <c r="V31" s="8" t="n"/>
+      <c r="W31" s="8" t="inlineStr">
         <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr">
+      <c r="X31" s="8" t="inlineStr">
         <is>
           <t>库尔勒市第三中学</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="Y31" s="8" t="inlineStr">
         <is>
           <t>巴音郭楞蒙古自治州</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
+      <c r="Z31" s="8" t="inlineStr">
         <is>
           <t>库尔勒市</t>
         </is>
       </c>
-      <c r="AA31" t="inlineStr">
+      <c r="AA31" s="8" t="inlineStr">
         <is>
           <t>喀拉苏路新40号小区</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
+      <c r="AB31" s="8" t="inlineStr">
         <is>
           <t>18290860443</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
+      <c r="AC31" s="8" t="inlineStr">
         <is>
           <t>2101112067@pku.edu.cn</t>
         </is>
       </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AF31" t="inlineStr">
+      <c r="AD31" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AE31" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AF31" s="8" t="inlineStr">
         <is>
           <t>15739855060</t>
         </is>
       </c>
-      <c r="AH31" t="inlineStr">
+      <c r="AG31" s="8" t="n"/>
+      <c r="AH31" s="8" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="7" t="inlineStr">
         <is>
           <t>2001213336</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="7" t="inlineStr">
         <is>
           <t>硕士</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G32" s="8" t="inlineStr">
         <is>
           <t>非定向</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H32" s="7" t="inlineStr">
         <is>
           <t>吾拉哈提·阿达力别克</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J32" s="7" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K32" s="7" t="inlineStr">
         <is>
           <t>哈萨克族</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" s="8" t="inlineStr">
         <is>
           <t>普通</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="M32" s="8" t="inlineStr">
         <is>
           <t>共青团员</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="N32" s="7" t="inlineStr">
         <is>
           <t>自然地理学</t>
         </is>
       </c>
-      <c r="O32" t="n">
+      <c r="O32" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P32" s="8" t="n">
         <v>20200901</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q32" s="8" t="n">
         <v>20230630</v>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="R32" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
+      <c r="S32" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="T32" s="8" t="inlineStr">
         <is>
           <t>阿勒泰地区</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="U32" s="8" t="inlineStr">
         <is>
           <t>阿勒泰地区</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
+      <c r="V32" s="8" t="n"/>
+      <c r="W32" s="8" t="inlineStr">
         <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="X32" t="inlineStr">
+      <c r="X32" s="8" t="inlineStr">
         <is>
           <t>阿勒泰地区第二高级中学</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="Y32" s="8" t="inlineStr">
         <is>
           <t>阿勒泰地区</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="Z32" s="8" t="inlineStr">
         <is>
           <t>阿勒泰市</t>
         </is>
       </c>
-      <c r="AA32" t="inlineStr">
+      <c r="AA32" s="8" t="inlineStr">
         <is>
           <t>黄金河谷小区20号楼1单元301</t>
         </is>
       </c>
-      <c r="AB32" t="n">
+      <c r="AB32" s="8" t="n">
         <v>18800192763</v>
       </c>
-      <c r="AC32" t="inlineStr">
+      <c r="AC32" s="8" t="inlineStr">
         <is>
           <t>ulahat_adal@pku.edu.cn</t>
         </is>
       </c>
-      <c r="AD32" t="inlineStr">
+      <c r="AD32" s="8" t="inlineStr">
         <is>
           <t>EG7068807（自持）</t>
         </is>
       </c>
-      <c r="AE32" t="inlineStr">
+      <c r="AE32" s="8" t="inlineStr">
         <is>
           <t>有</t>
         </is>
       </c>
-      <c r="AF32" t="n">
+      <c r="AF32" s="8" t="n">
         <v>18129055318</v>
       </c>
-      <c r="AH32" t="inlineStr">
+      <c r="AG32" s="8" t="n"/>
+      <c r="AH32" s="8" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="7" t="inlineStr">
         <is>
           <t>2101112125</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="7" t="inlineStr">
         <is>
           <t>博士</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G33" s="8" t="inlineStr">
         <is>
           <t>委培</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H33" s="7" t="inlineStr">
         <is>
           <t>尼格娜热·阿曼太</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J33" s="7" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="K33" s="7" t="inlineStr">
         <is>
           <t>哈萨克族</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" s="8" t="inlineStr">
         <is>
           <t>普通</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="M33" s="8" t="inlineStr">
         <is>
           <t>共青团员</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="N33" s="7" t="inlineStr">
         <is>
           <t>生态学</t>
         </is>
       </c>
-      <c r="O33" t="n">
+      <c r="O33" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P33" s="8" t="n">
         <v>20210901</v>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="Q33" s="8" t="inlineStr">
         <is>
           <t>20250701</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="R33" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
+      <c r="S33" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="T33" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="U33" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
+      <c r="V33" s="8" t="n"/>
+      <c r="W33" s="8" t="inlineStr">
         <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr">
+      <c r="X33" s="8" t="inlineStr">
         <is>
           <t>兵团第二中学</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr">
+      <c r="Y33" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
+      <c r="Z33" s="8" t="inlineStr">
         <is>
           <t>沙依巴克区</t>
         </is>
       </c>
-      <c r="AA33" t="inlineStr">
+      <c r="AA33" s="8" t="inlineStr">
         <is>
           <t>南昌路376号农科院小区南苑明珠花卉市场内134栋1单元</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr">
+      <c r="AB33" s="8" t="inlineStr">
         <is>
           <t>17609071586</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr">
+      <c r="AC33" s="8" t="inlineStr">
         <is>
           <t>2101112125@pku.edu.cn</t>
         </is>
       </c>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AE33" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AF33" t="inlineStr">
+      <c r="AD33" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AE33" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AF33" s="8" t="inlineStr">
         <is>
           <t>13999248066</t>
         </is>
       </c>
-      <c r="AH33" t="inlineStr">
+      <c r="AG33" s="8" t="n"/>
+      <c r="AH33" s="8" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="7" t="inlineStr">
         <is>
           <t>2201112258</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" s="7" t="inlineStr">
         <is>
           <t>博士</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G34" s="8" t="inlineStr">
         <is>
           <t>非定向</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H34" s="7" t="inlineStr">
         <is>
           <t>古丽加孜·叶尔肯别克</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J34" s="7" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="K34" s="7" t="inlineStr">
         <is>
           <t>哈萨克族</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" s="8" t="inlineStr">
         <is>
           <t>普通</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="M34" s="8" t="inlineStr">
         <is>
           <t>共青团员</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="N34" s="7" t="inlineStr">
         <is>
           <t>地理学（环境地理学）</t>
         </is>
       </c>
-      <c r="O34" t="n">
+      <c r="O34" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P34" s="8" t="n">
         <v>20220901</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q34" s="8" t="n">
         <v>20260701</v>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="R34" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S34" t="n">
+      <c r="S34" s="8" t="n">
         <v>20220901</v>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="T34" s="8" t="inlineStr">
         <is>
           <t>哈密市</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="U34" s="8" t="inlineStr">
         <is>
           <t>哈密市</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr">
+      <c r="V34" s="8" t="n"/>
+      <c r="W34" s="8" t="inlineStr">
         <is>
           <t>农村</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr">
+      <c r="X34" s="8" t="inlineStr">
         <is>
           <t>哈密地区第三中学</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr">
+      <c r="Y34" s="8" t="inlineStr">
         <is>
           <t>哈密地区</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
+      <c r="Z34" s="8" t="inlineStr">
         <is>
           <t>巴里坤县</t>
         </is>
       </c>
-      <c r="AA34" t="inlineStr">
+      <c r="AA34" s="8" t="inlineStr">
         <is>
           <t>巴里坤县海子沿乡海子沿村一组02号</t>
         </is>
       </c>
-      <c r="AB34" t="n">
+      <c r="AB34" s="8" t="n">
         <v>18600504361</v>
       </c>
-      <c r="AC34" t="inlineStr">
+      <c r="AC34" s="8" t="inlineStr">
         <is>
           <t>2201112258@stu.pku.edu.cn</t>
         </is>
       </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AF34" t="n">
+      <c r="AD34" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AE34" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AF34" s="8" t="n">
         <v>13345433462</v>
       </c>
-      <c r="AH34" t="inlineStr">
+      <c r="AG34" s="8" t="n"/>
+      <c r="AH34" s="8" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="7" t="n">
         <v>2201213384</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" s="7" t="inlineStr">
         <is>
           <t>硕士</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G35" s="8" t="inlineStr">
         <is>
           <t>非定向</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H35" s="7" t="inlineStr">
         <is>
           <t>苏比努尔·艾尼瓦尔</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J35" s="7" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="K35" s="7" t="inlineStr">
         <is>
           <t>维吾尔族</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" s="8" t="inlineStr">
         <is>
           <t>普通</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="M35" s="8" t="inlineStr">
         <is>
           <t>中共党员</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="N35" s="7" t="inlineStr">
         <is>
           <t>自然地理学</t>
         </is>
       </c>
-      <c r="O35" t="n">
+      <c r="O35" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P35" s="8" t="n">
         <v>20220901</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35" s="8" t="n">
         <v>20250701</v>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="R35" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
+      <c r="S35" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="T35" s="8" t="inlineStr">
         <is>
           <t>阿克苏地区</t>
         </is>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="U35" s="8" t="inlineStr">
         <is>
           <t>阿克苏地区</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
+      <c r="V35" s="8" t="n"/>
+      <c r="W35" s="8" t="inlineStr">
         <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr">
+      <c r="X35" s="8" t="inlineStr">
         <is>
           <t>阿克苏地区第二中学</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr">
+      <c r="Y35" s="8" t="inlineStr">
         <is>
           <t>阿克苏地区</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
+      <c r="Z35" s="8" t="inlineStr">
         <is>
           <t>阿克苏市</t>
         </is>
       </c>
-      <c r="AA35" t="inlineStr">
+      <c r="AA35" s="8" t="inlineStr">
         <is>
           <t>新疆阿克苏市东大街14号高层1单元1701室</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
+      <c r="AB35" s="8" t="inlineStr">
         <is>
           <t>18811078208</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
+      <c r="AC35" s="8" t="inlineStr">
         <is>
           <t>2201213384@pku.edu.cn</t>
         </is>
       </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AF35" t="n">
+      <c r="AD35" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AE35" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AF35" s="8" t="n">
         <v>13899227773</v>
       </c>
-      <c r="AH35" t="inlineStr">
+      <c r="AG35" s="8" t="n"/>
+      <c r="AH35" s="8" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="7" t="n">
         <v>2201213433</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="7" t="inlineStr">
         <is>
           <t>硕士</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G36" s="8" t="inlineStr">
         <is>
           <t>非定向</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H36" s="7" t="inlineStr">
         <is>
           <t>娜日玛</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J36" s="7" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="K36" s="7" t="inlineStr">
         <is>
           <t>蒙古族</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" s="8" t="inlineStr">
         <is>
           <t>普通</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="M36" s="8" t="inlineStr">
         <is>
           <t>共青团员</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="N36" s="7" t="inlineStr">
         <is>
           <t>环境科学</t>
         </is>
       </c>
-      <c r="O36" t="n">
+      <c r="O36" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P36" s="8" t="n">
         <v>20220901</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q36" s="8" t="n">
         <v>20250630</v>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="R36" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
+      <c r="S36" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="T36" s="8" t="inlineStr">
         <is>
           <t>博尔塔拉蒙古自治州</t>
         </is>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="U36" s="8" t="inlineStr">
         <is>
           <t>博尔塔拉蒙古自治州</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
+      <c r="V36" s="8" t="n"/>
+      <c r="W36" s="8" t="inlineStr">
         <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="X36" t="inlineStr">
+      <c r="X36" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐八一中学</t>
         </is>
       </c>
-      <c r="Y36" t="inlineStr">
+      <c r="Y36" s="8" t="inlineStr">
         <is>
           <t>博尔塔拉蒙古自治州</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
+      <c r="Z36" s="8" t="inlineStr">
         <is>
           <t>博乐市</t>
         </is>
       </c>
-      <c r="AA36" t="inlineStr">
+      <c r="AA36" s="8" t="inlineStr">
         <is>
           <t>北京路137号</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
+      <c r="AB36" s="8" t="inlineStr">
         <is>
           <t>17799111533</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
+      <c r="AC36" s="8" t="inlineStr">
         <is>
           <t>2201213433@pku.edu.cn</t>
         </is>
       </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AF36" t="n">
+      <c r="AD36" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AE36" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AF36" s="8" t="n">
         <v>18199315331</v>
       </c>
-      <c r="AH36" t="inlineStr">
+      <c r="AG36" s="8" t="n"/>
+      <c r="AH36" s="8" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="7" t="inlineStr">
         <is>
           <t>1900013266</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" s="7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G37" s="8" t="inlineStr">
         <is>
           <t>非定向</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H37" s="7" t="inlineStr">
         <is>
           <t>阿比达·阿不都沙拉木</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J37" s="7" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="K37" s="7" t="inlineStr">
         <is>
           <t>维吾尔族</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" s="8" t="inlineStr">
         <is>
           <t>普通</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="M37" s="8" t="inlineStr">
         <is>
           <t>共青团员</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="N37" s="7" t="inlineStr">
         <is>
           <t>环境科学</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="O37" s="8" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="P37" s="8" t="inlineStr">
         <is>
           <t>20190901</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="Q37" s="8" t="inlineStr">
         <is>
           <t>20230701</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="R37" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
+      <c r="S37" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="T37" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="U37" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr">
+      <c r="V37" s="8" t="n"/>
+      <c r="W37" s="8" t="inlineStr">
         <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="X37" t="inlineStr">
+      <c r="X37" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市第一中学</t>
         </is>
       </c>
-      <c r="Y37" t="inlineStr">
+      <c r="Y37" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
+      <c r="Z37" s="8" t="inlineStr">
         <is>
           <t>天山区</t>
         </is>
       </c>
-      <c r="AA37" t="inlineStr">
+      <c r="AA37" s="8" t="inlineStr">
         <is>
           <t>东大梁东街博望路2号耀和东方名城和顺三期D区5号楼2单元901室</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
+      <c r="AB37" s="8" t="inlineStr">
         <is>
           <t>18813028212</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
+      <c r="AC37" s="8" t="inlineStr">
         <is>
           <t>1900013266@pku.edu.cn</t>
         </is>
       </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AF37" t="n">
+      <c r="AD37" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AE37" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AF37" s="8" t="n">
         <v>13999961785</v>
       </c>
-      <c r="AH37" t="inlineStr">
+      <c r="AG37" s="8" t="n"/>
+      <c r="AH37" s="8" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="7" t="inlineStr">
         <is>
           <t>2101112079</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="7" t="inlineStr">
         <is>
           <t>博士</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G38" s="8" t="inlineStr">
         <is>
           <t>非定向</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H38" s="7" t="inlineStr">
         <is>
           <t>娜扎凯提·安尼瓦尔</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J38" s="7" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="K38" s="7" t="inlineStr">
         <is>
           <t>维吾尔族</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" s="8" t="inlineStr">
         <is>
           <t>普通</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="M38" s="8" t="inlineStr">
         <is>
           <t>共青团员</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="N38" s="7" t="inlineStr">
         <is>
           <t>自然地理学</t>
         </is>
       </c>
-      <c r="O38" t="n">
+      <c r="O38" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="P38" t="n">
+      <c r="P38" s="8" t="n">
         <v>20210901</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="Q38" s="8" t="n">
         <v>20260701</v>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="R38" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
+      <c r="S38" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="T38" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="U38" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
+      <c r="V38" s="8" t="n"/>
+      <c r="W38" s="8" t="inlineStr">
         <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="X38" t="inlineStr">
+      <c r="X38" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市第八中学</t>
         </is>
       </c>
-      <c r="Y38" t="inlineStr">
+      <c r="Y38" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
+      <c r="Z38" s="8" t="inlineStr">
         <is>
           <t>新市区</t>
         </is>
       </c>
-      <c r="AA38" t="inlineStr">
+      <c r="AA38" s="8" t="inlineStr">
         <is>
           <t>北京南路40号</t>
         </is>
       </c>
-      <c r="AB38" t="n">
+      <c r="AB38" s="8" t="n">
         <v>18811730131</v>
       </c>
-      <c r="AC38" t="inlineStr">
+      <c r="AC38" s="8" t="inlineStr">
         <is>
           <t>646158675@QQ.MAIL</t>
         </is>
       </c>
-      <c r="AD38" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AE38" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AF38" t="n">
+      <c r="AD38" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AE38" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AF38" s="8" t="n">
         <v>13565818082</v>
       </c>
-      <c r="AH38" t="inlineStr">
+      <c r="AG38" s="8" t="n"/>
+      <c r="AH38" s="8" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="7" t="n">
         <v>2101213336</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>高校</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="8" t="inlineStr">
         <is>
           <t>北京大学</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" s="7" t="inlineStr">
         <is>
           <t>00126</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="7" t="inlineStr">
         <is>
           <t>城市与环境学院</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="7" t="inlineStr">
         <is>
           <t>硕士</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G39" s="8" t="inlineStr">
         <is>
           <t>非定向</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H39" s="7" t="inlineStr">
         <is>
           <t>克拉拉·瓦力斯</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J39" s="7" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="K39" s="7" t="inlineStr">
         <is>
           <t>维吾尔族</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" s="8" t="inlineStr">
         <is>
           <t>普通</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="M39" s="8" t="inlineStr">
         <is>
           <t>共青团员</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="N39" s="7" t="inlineStr">
         <is>
           <t>生态学</t>
         </is>
       </c>
-      <c r="O39" t="n">
+      <c r="O39" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="P39" t="n">
+      <c r="P39" s="8" t="n">
         <v>20210901</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q39" s="8" t="n">
         <v>20240701</v>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="R39" s="8" t="inlineStr">
         <is>
           <t>在读</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
+      <c r="S39" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="T39" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="U39" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
+      <c r="V39" s="8" t="n"/>
+      <c r="W39" s="8" t="inlineStr">
         <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="X39" t="inlineStr">
+      <c r="X39" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市第七十中学</t>
         </is>
       </c>
-      <c r="Y39" t="inlineStr">
+      <c r="Y39" s="8" t="inlineStr">
         <is>
           <t>乌鲁木齐市</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
+      <c r="Z39" s="8" t="inlineStr">
         <is>
           <t>新市区</t>
         </is>
       </c>
-      <c r="AA39" t="inlineStr">
+      <c r="AA39" s="8" t="inlineStr">
         <is>
           <t>高新街街道桂林路130号计生委家属院2号楼4单元601    830000</t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr">
+      <c r="AB39" s="8" t="inlineStr">
         <is>
           <t>18811612081</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr">
+      <c r="AC39" s="8" t="inlineStr">
         <is>
           <t>kilara@pku.edu.cn</t>
         </is>
       </c>
-      <c r="AD39" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AE39" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="AF39" t="n">
+      <c r="AD39" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AE39" s="8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AF39" s="8" t="n">
         <v>13579839103</v>
       </c>
-      <c r="AH39" t="inlineStr">
+      <c r="AG39" s="8" t="n"/>
+      <c r="AH39" s="8" t="inlineStr">
         <is>
           <t>无</t>
         </is>
